--- a/Raw_data_cleaned/Burley/Burley23.xlsx
+++ b/Raw_data_cleaned/Burley/Burley23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tobacco\Raw_data_cleaned\Burley\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8489AF0-3DA5-409D-80D1-91EF411428EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81058CCE-4F3A-44C6-80A9-A1150BCADC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6040" yWindow="2230" windowWidth="28740" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8360" yWindow="2250" windowWidth="28740" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Raw_data_cleaned/Burley/Burley23.xlsx
+++ b/Raw_data_cleaned/Burley/Burley23.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tobacco\Raw_data_cleaned\Burley\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitvaraaravithya/Documents/tobacco_project_review/Raw_data_cleaned/Burley/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8489AF0-3DA5-409D-80D1-91EF411428EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5F07AB6-EB3B-7B41-882A-9937B46BCBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6040" yWindow="2230" windowWidth="28740" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4120" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +41,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -355,16 +355,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B9AF02-60A8-FC45-8851-57BAEFFEA3ED}">
   <dimension ref="A1:BE418"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A397" zoomScale="32" workbookViewId="0">
       <selection sqref="A1:BE418"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>6.4599999999999998E-4</v>
       </c>
@@ -710,7 +710,7 @@
         <v>284.95641490105618</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1.2930000000000001E-3</v>
       </c>
@@ -883,7 +883,7 @@
         <v>278.98270784655915</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1.939E-3</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>273.88030344541124</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2.5860000000000002E-3</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>269.30290994964918</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3.2320000000000001E-3</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>265.11646222615951</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3.8779999999999999E-3</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>261.22903128733697</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5.1710000000000002E-3</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>254.1435143029139</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>9.0500000000000008E-3</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>236.60690185566088</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9.6959999999999998E-3</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>234.07542928151901</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1.0343E-2</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>231.62714911925821</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1.4867E-2</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>216.49301644088771</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1.6160000000000001E-2</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>212.68662093176195</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2.7149E-2</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>186.47873198581428</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2.7796000000000001E-2</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>185.1960931804056</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3.0380999999999998E-2</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>180.29139588761174</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>3.1028E-2</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>179.11545265752156</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>3.1674000000000001E-2</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>177.96071702693459</v>
       </c>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3.3612999999999997E-2</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>174.60548163328454</v>
       </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>3.4259999999999999E-2</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>173.52114140844162</v>
       </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>3.6199000000000002E-2</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>170.37031767493696</v>
       </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>3.7491999999999998E-2</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>168.34723856621216</v>
       </c>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>3.8137999999999998E-2</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>167.35864576784152</v>
       </c>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>3.9431000000000001E-2</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>165.42241602037379</v>
       </c>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>4.0724000000000003E-2</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>163.54050893617415</v>
       </c>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>4.1369999999999997E-2</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>162.61980462221146</v>
       </c>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>4.3310000000000001E-2</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>159.92932731471026</v>
       </c>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>4.4602000000000003E-2</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>158.19665612446909</v>
       </c>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>4.5894999999999998E-2</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>156.50747702093119</v>
       </c>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>4.6542E-2</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>155.67844510086863</v>
       </c>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>4.7835000000000003E-2</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>154.05287974623235</v>
       </c>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>4.9126999999999997E-2</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>152.46865255965889</v>
       </c>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>5.042E-2</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>150.92162710397315</v>
       </c>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>5.1067000000000001E-2</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>150.16144821210798</v>
       </c>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>5.2359000000000003E-2</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>148.67030360561006</v>
       </c>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>5.6238000000000003E-2</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>144.39596192600095</v>
       </c>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>6.0116000000000003E-2</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>140.40023194428298</v>
       </c>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>6.1408999999999998E-2</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>139.1244400279885</v>
       </c>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>6.2056E-2</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>138.49608202127564</v>
       </c>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>6.2701999999999994E-2</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>137.87521342445135</v>
       </c>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>6.4641000000000004E-2</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>136.04963340044958</v>
       </c>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>6.658E-2</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>134.27878957264207</v>
       </c>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>6.9166000000000005E-2</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>131.99755748031183</v>
       </c>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>7.3691000000000006E-2</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>128.21093862292213</v>
       </c>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>7.4983999999999995E-2</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>127.17366083700473</v>
       </c>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>7.5630000000000003E-2</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>126.66249141446768</v>
       </c>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>7.6276999999999998E-2</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>126.15515600893026</v>
       </c>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>7.6923000000000005E-2</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>125.65315336636995</v>
       </c>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>7.7568999999999999E-2</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>125.15562785582101</v>
       </c>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>7.8862000000000002E-2</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>124.17299039249333</v>
       </c>
     </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>8.0155000000000004E-2</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>123.20750775005892</v>
       </c>
     </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>8.0801999999999999E-2</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>122.73067706948574</v>
       </c>
     </row>
-    <row r="53" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>8.2094E-2</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>121.79073227007838</v>
       </c>
     </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>8.2740999999999995E-2</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>121.32604679462374</v>
       </c>
     </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>8.5972999999999994E-2</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>119.06265715424136</v>
       </c>
     </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>8.6619000000000002E-2</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>118.62145464266187</v>
       </c>
     </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>8.9205000000000007E-2</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>116.89095357779472</v>
       </c>
     </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>8.9851E-2</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>116.46733681153391</v>
       </c>
     </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>9.1790999999999998E-2</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>115.21528678508953</v>
       </c>
     </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>9.3082999999999999E-2</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>114.39775254557229</v>
       </c>
     </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>9.3729999999999994E-2</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>113.99312487993264</v>
       </c>
     </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>9.4376000000000002E-2</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>113.59224568532956</v>
       </c>
     </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>9.5022999999999996E-2</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>113.19383396003438</v>
       </c>
     </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>9.5669000000000004E-2</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>112.79908218127311</v>
       </c>
     </row>
-    <row r="65" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>9.6962000000000007E-2</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>112.01795177039499</v>
       </c>
     </row>
-    <row r="66" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>9.7608E-2</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>111.63210255271518</v>
       </c>
     </row>
-    <row r="67" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>9.8254999999999995E-2</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>111.24855516477058</v>
       </c>
     </row>
-    <row r="68" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>9.8901000000000003E-2</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>110.86845948233758</v>
       </c>
     </row>
-    <row r="69" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>0.10148699999999999</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>109.37481274263979</v>
       </c>
     </row>
-    <row r="70" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>0.10278</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>108.64427041507983</v>
       </c>
     </row>
-    <row r="71" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>0.104072</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>107.92479102578181</v>
       </c>
     </row>
-    <row r="72" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>0.105365</v>
       </c>
@@ -12820,7 +12820,7 @@
         <v>107.21501377537808</v>
       </c>
     </row>
-    <row r="73" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>0.107304</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>106.16933712504111</v>
       </c>
     </row>
-    <row r="74" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>0.10795100000000001</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>105.82530000374453</v>
       </c>
     </row>
-    <row r="75" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>0.10989</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>104.80849263173408</v>
       </c>
     </row>
-    <row r="76" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>0.116354</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>101.56518569926109</v>
       </c>
     </row>
-    <row r="77" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>0.119586</v>
       </c>
@@ -13685,7 +13685,7 @@
         <v>100.02258392536118</v>
       </c>
     </row>
-    <row r="78" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>0.12023300000000001</v>
       </c>
@@ -13858,7 +13858,7 @@
         <v>99.719750287250889</v>
       </c>
     </row>
-    <row r="79" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>0.122172</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>98.823745344015862</v>
       </c>
     </row>
-    <row r="80" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>0.124111</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>97.94465852245375</v>
       </c>
     </row>
-    <row r="81" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>0.12540399999999999</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>97.36759550397116</v>
       </c>
     </row>
-    <row r="82" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>0.12992899999999999</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>95.403420133733462</v>
       </c>
     </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>0.13122200000000001</v>
       </c>
@@ -14723,7 +14723,7 @@
         <v>94.857401204157085</v>
       </c>
     </row>
-    <row r="84" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>0.13186800000000001</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>94.587056835337208</v>
       </c>
     </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>0.13445399999999999</v>
       </c>
@@ -15069,7 +15069,7 @@
         <v>93.520847223132719</v>
       </c>
     </row>
-    <row r="86" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>0.13833200000000001</v>
       </c>
@@ -15242,7 +15242,7 @@
         <v>91.96828258347611</v>
       </c>
     </row>
-    <row r="87" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>0.139625</v>
       </c>
@@ -15415,7 +15415,7 @@
         <v>91.462523288918462</v>
       </c>
     </row>
-    <row r="88" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>0.142211</v>
       </c>
@@ -15588,7 +15588,7 @@
         <v>90.468192188544094</v>
       </c>
     </row>
-    <row r="89" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>0.14350399999999999</v>
       </c>
@@ -15761,7 +15761,7 @@
         <v>89.979410417765152</v>
       </c>
     </row>
-    <row r="90" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>0.14415</v>
       </c>
@@ -15934,7 +15934,7 @@
         <v>89.73725777121345</v>
       </c>
     </row>
-    <row r="91" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>0.148675</v>
       </c>
@@ -16107,7 +16107,7 @@
         <v>88.078207843613725</v>
       </c>
     </row>
-    <row r="92" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>0.155139</v>
       </c>
@@ -16280,7 +16280,7 @@
         <v>85.815161520429541</v>
       </c>
     </row>
-    <row r="93" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>0.157078</v>
       </c>
@@ -16453,7 +16453,7 @@
         <v>85.159448455456598</v>
       </c>
     </row>
-    <row r="94" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>0.157725</v>
       </c>
@@ -16626,7 +16626,7 @@
         <v>84.942933267307779</v>
       </c>
     </row>
-    <row r="95" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>0.15901699999999999</v>
       </c>
@@ -16799,7 +16799,7 @@
         <v>84.51393047560488</v>
       </c>
     </row>
-    <row r="96" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>0.159664</v>
       </c>
@@ -16972,7 +16972,7 @@
         <v>84.300759988189824</v>
       </c>
     </row>
-    <row r="97" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>0.161603</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>83.668443800442134</v>
       </c>
     </row>
-    <row r="98" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>0.164189</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>82.840058210756467</v>
       </c>
     </row>
-    <row r="99" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>0.16483500000000001</v>
       </c>
@@ -17491,7 +17491,7 @@
         <v>82.635726116923266</v>
       </c>
     </row>
-    <row r="100" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>0.16548199999999999</v>
       </c>
@@ -17664,7 +17664,7 @@
         <v>82.432104166385315</v>
       </c>
     </row>
-    <row r="101" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>0.17000599999999999</v>
       </c>
@@ -17837,7 +17837,7 @@
         <v>81.036340997752347</v>
       </c>
     </row>
-    <row r="102" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>0.170653</v>
       </c>
@@ -18010,7 +18010,7 @@
         <v>80.840637273179894</v>
       </c>
     </row>
-    <row r="103" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>0.172592</v>
       </c>
@@ -18183,7 +18183,7 @@
         <v>80.259824168639184</v>
       </c>
     </row>
-    <row r="104" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>0.173239</v>
       </c>
@@ -18356,7 +18356,7 @@
         <v>80.067894958373529</v>
       </c>
     </row>
-    <row r="105" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>0.17647099999999999</v>
       </c>
@@ -18529,7 +18529,7 @@
         <v>79.12286169596851</v>
       </c>
     </row>
-    <row r="106" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>0.177763</v>
       </c>
@@ -18702,7 +18702,7 @@
         <v>78.751349317369545</v>
       </c>
     </row>
-    <row r="107" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>0.18099499999999999</v>
       </c>
@@ -18875,7 +18875,7 @@
         <v>77.837196170244496</v>
       </c>
     </row>
-    <row r="108" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>0.18681300000000001</v>
       </c>
@@ -19048,7 +19048,7 @@
         <v>76.244199163827957</v>
       </c>
     </row>
-    <row r="109" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>0.19198399999999999</v>
       </c>
@@ -19221,7 +19221,7 @@
         <v>74.882107840969596</v>
       </c>
     </row>
-    <row r="110" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>0.197156</v>
       </c>
@@ -19394,7 +19394,7 @@
         <v>73.567379953610555</v>
       </c>
     </row>
-    <row r="111" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>0.19844899999999999</v>
       </c>
@@ -19567,7 +19567,7 @@
         <v>73.245827543940607</v>
       </c>
     </row>
-    <row r="112" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>0.20232700000000001</v>
       </c>
@@ -19740,7 +19740,7 @@
         <v>72.297893552121138</v>
       </c>
     </row>
-    <row r="113" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>0.20297299999999999</v>
       </c>
@@ -19913,7 +19913,7 @@
         <v>72.142337565078364</v>
       </c>
     </row>
-    <row r="114" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>0.206206</v>
       </c>
@@ -20086,7 +20086,7 @@
         <v>71.373652388166846</v>
       </c>
     </row>
-    <row r="115" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>0.20749799999999999</v>
       </c>
@@ -20259,7 +20259,7 @@
         <v>71.070957994654677</v>
       </c>
     </row>
-    <row r="116" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>0.20943800000000001</v>
       </c>
@@ -20432,7 +20432,7 @@
         <v>70.621160556608771</v>
       </c>
     </row>
-    <row r="117" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>0.21137700000000001</v>
       </c>
@@ -20605,7 +20605,7 @@
         <v>70.177148215167847</v>
       </c>
     </row>
-    <row r="118" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>0.21460899999999999</v>
       </c>
@@ -20778,7 +20778,7 @@
         <v>69.44909428037127</v>
       </c>
     </row>
-    <row r="119" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>0.215255</v>
       </c>
@@ -20951,7 +20951,7 @@
         <v>69.305343447747561</v>
       </c>
     </row>
-    <row r="120" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>0.21590200000000001</v>
       </c>
@@ -21124,7 +21124,7 @@
         <v>69.16195212785783</v>
       </c>
     </row>
-    <row r="121" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>0.21654799999999999</v>
       </c>
@@ -21297,7 +21297,7 @@
         <v>69.019359798701942</v>
       </c>
     </row>
-    <row r="122" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>0.21848699999999999</v>
       </c>
@@ -21470,7 +21470,7 @@
         <v>68.594789502031915</v>
       </c>
     </row>
-    <row r="123" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>0.22107299999999999</v>
       </c>
@@ -21643,7 +21643,7 @@
         <v>68.036415139332505</v>
       </c>
     </row>
-    <row r="124" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>0.22689100000000001</v>
       </c>
@@ -21816,7 +21816,7 @@
         <v>66.811948861547549</v>
       </c>
     </row>
-    <row r="125" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>0.22883000000000001</v>
       </c>
@@ -21989,7 +21989,7 @@
         <v>66.413312486248813</v>
       </c>
     </row>
-    <row r="126" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>0.23141600000000001</v>
       </c>
@@ -22162,7 +22162,7 @@
         <v>65.888770466610922</v>
       </c>
     </row>
-    <row r="127" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>0.23335500000000001</v>
       </c>
@@ -22335,7 +22335,7 @@
         <v>65.500688277669781</v>
       </c>
     </row>
-    <row r="128" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>0.23594100000000001</v>
       </c>
@@ -22508,7 +22508,7 @@
         <v>64.989923264438872</v>
       </c>
     </row>
-    <row r="129" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>0.239173</v>
       </c>
@@ -22681,7 +22681,7 @@
         <v>64.362249555213666</v>
       </c>
     </row>
-    <row r="130" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>0.241758</v>
       </c>
@@ -22854,7 +22854,7 @@
         <v>63.868551558827825</v>
       </c>
     </row>
-    <row r="131" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>0.243697</v>
       </c>
@@ -23027,7 +23027,7 @@
         <v>63.502972363185485</v>
       </c>
     </row>
-    <row r="132" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>0.24434400000000001</v>
       </c>
@@ -23200,7 +23200,7 @@
         <v>63.381877284483132</v>
       </c>
     </row>
-    <row r="133" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>0.24499000000000001</v>
       </c>
@@ -23373,7 +23373,7 @@
         <v>63.261409525742017</v>
       </c>
     </row>
-    <row r="134" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>0.246283</v>
       </c>
@@ -23546,7 +23546,7 @@
         <v>63.02159842477699</v>
       </c>
     </row>
-    <row r="135" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>0.24693000000000001</v>
       </c>
@@ -23719,7 +23719,7 @@
         <v>62.902251354603997</v>
       </c>
     </row>
-    <row r="136" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>0.24757599999999999</v>
       </c>
@@ -23892,7 +23892,7 @@
         <v>62.783518760384091</v>
       </c>
     </row>
-    <row r="137" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>0.24886900000000001</v>
       </c>
@@ -24065,7 +24065,7 @@
         <v>62.547150557409445</v>
       </c>
     </row>
-    <row r="138" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>0.24951499999999999</v>
       </c>
@@ -24238,7 +24238,7 @@
         <v>62.429692847494742</v>
       </c>
     </row>
-    <row r="139" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>0.250162</v>
       </c>
@@ -24411,7 +24411,7 @@
         <v>62.312474158809842</v>
       </c>
     </row>
-    <row r="140" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>0.25080799999999998</v>
       </c>
@@ -24584,7 +24584,7 @@
         <v>62.19585443059335</v>
       </c>
     </row>
-    <row r="141" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>0.25145400000000001</v>
       </c>
@@ -24757,7 +24757,7 @@
         <v>62.079649781992636</v>
       </c>
     </row>
-    <row r="142" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>0.25339400000000001</v>
       </c>
@@ -24930,7 +24930,7 @@
         <v>61.733147432447957</v>
       </c>
     </row>
-    <row r="143" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>0.25597900000000001</v>
       </c>
@@ -25103,7 +25103,7 @@
         <v>61.277117599752494</v>
       </c>
     </row>
-    <row r="144" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>0.25662600000000002</v>
       </c>
@@ -25276,7 +25276,7 @@
         <v>61.163977262335059</v>
       </c>
     </row>
-    <row r="145" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>0.25791900000000001</v>
       </c>
@@ -25449,7 +25449,7 @@
         <v>60.939054694856914</v>
       </c>
     </row>
-    <row r="146" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>0.26115100000000002</v>
       </c>
@@ -25622,7 +25622,7 @@
         <v>60.383631998812824</v>
       </c>
     </row>
-    <row r="147" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>0.261797</v>
       </c>
@@ -25795,7 +25795,7 @@
         <v>60.273763317798789</v>
       </c>
     </row>
-    <row r="148" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>0.26244299999999998</v>
       </c>
@@ -25968,7 +25968,7 @@
         <v>60.164271900332061</v>
       </c>
     </row>
-    <row r="149" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>0.26308999999999999</v>
       </c>
@@ -26141,7 +26141,7 @@
         <v>60.054987053521195</v>
       </c>
     </row>
-    <row r="150" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>0.26438299999999998</v>
       </c>
@@ -26314,7 +26314,7 @@
         <v>59.837705643782861</v>
       </c>
     </row>
-    <row r="151" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>0.266322</v>
       </c>
@@ -26487,7 +26487,7 @@
         <v>59.514633671778562</v>
       </c>
     </row>
-    <row r="152" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>0.26696799999999998</v>
       </c>
@@ -26660,7 +26660,7 @@
         <v>59.407727632157524</v>
       </c>
     </row>
-    <row r="153" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>0.26826100000000003</v>
       </c>
@@ -26833,7 +26833,7 @@
         <v>59.19483283474505</v>
       </c>
     </row>
-    <row r="154" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>0.26955400000000002</v>
       </c>
@@ -27006,7 +27006,7 @@
         <v>58.983369146655043</v>
       </c>
     </row>
-    <row r="155" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>0.270847</v>
       </c>
@@ -27179,7 +27179,7 @@
         <v>58.773321218323879</v>
       </c>
     </row>
-    <row r="156" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>0.27149299999999998</v>
       </c>
@@ -27352,7 +27352,7 @@
         <v>58.668904112796191</v>
       </c>
     </row>
-    <row r="157" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>0.27343200000000001</v>
       </c>
@@ -27525,7 +27525,7 @@
         <v>58.357572136968294</v>
       </c>
     </row>
-    <row r="158" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>0.27407900000000002</v>
       </c>
@@ -27698,7 +27698,7 @@
         <v>58.254376269134958</v>
       </c>
     </row>
-    <row r="159" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>0.274725</v>
       </c>
@@ -27871,7 +27871,7 @@
         <v>58.151680584703094</v>
       </c>
     </row>
-    <row r="160" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>0.27601799999999999</v>
       </c>
@@ -28044,7 +28044,7 @@
         <v>57.947145632917277</v>
       </c>
     </row>
-    <row r="161" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>0.27666499999999999</v>
       </c>
@@ -28217,7 +28217,7 @@
         <v>57.845303845163862</v>
       </c>
     </row>
-    <row r="162" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>0.27731099999999997</v>
       </c>
@@ -28390,7 +28390,7 @@
         <v>57.743953025102591</v>
       </c>
     </row>
-    <row r="163" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>0.27795700000000001</v>
       </c>
@@ -28563,7 +28563,7 @@
         <v>57.642933761929633</v>
       </c>
     </row>
-    <row r="164" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>0.27989700000000001</v>
       </c>
@@ -28736,7 +28736,7 @@
         <v>57.341538844256114</v>
       </c>
     </row>
-    <row r="165" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>0.28054299999999999</v>
       </c>
@@ -28909,7 +28909,7 @@
         <v>57.241829604539852</v>
       </c>
     </row>
-    <row r="166" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>0.28183599999999998</v>
       </c>
@@ -29082,7 +29082,7 @@
         <v>57.043225380549934</v>
       </c>
     </row>
-    <row r="167" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>0.28248200000000001</v>
       </c>
@@ -29255,7 +29255,7 @@
         <v>56.944480661451927</v>
       </c>
     </row>
-    <row r="168" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>0.283775</v>
       </c>
@@ -29428,7 +29428,7 @@
         <v>56.747792042679684</v>
       </c>
     </row>
-    <row r="169" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>0.28636099999999998</v>
       </c>
@@ -29601,7 +29601,7 @@
         <v>56.358184981820436</v>
       </c>
     </row>
-    <row r="170" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>0.28700700000000001</v>
       </c>
@@ -29774,7 +29774,7 @@
         <v>56.261633933082415</v>
       </c>
     </row>
-    <row r="171" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>0.2883</v>
       </c>
@@ -29947,7 +29947,7 @@
         <v>56.069302427590152</v>
       </c>
     </row>
-    <row r="172" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>0.29088599999999998</v>
       </c>
@@ -30120,7 +30120,7 @@
         <v>55.688277264345437</v>
       </c>
     </row>
-    <row r="173" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>0.29153200000000001</v>
       </c>
@@ -30293,7 +30293,7 @@
         <v>55.59384293717536</v>
       </c>
     </row>
-    <row r="174" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>0.29217799999999999</v>
       </c>
@@ -30466,7 +30466,7 @@
         <v>55.499704738980675</v>
       </c>
     </row>
-    <row r="175" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>0.292825</v>
       </c>
@@ -30639,7 +30639,7 @@
         <v>55.405716146240827</v>
       </c>
     </row>
-    <row r="176" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>0.29476400000000003</v>
       </c>
@@ -30812,7 +30812,7 @@
         <v>55.125796360230815</v>
       </c>
     </row>
-    <row r="177" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>0.29541000000000001</v>
       </c>
@@ -30985,7 +30985,7 @@
         <v>55.033117664762322</v>
       </c>
     </row>
-    <row r="178" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>0.29605700000000001</v>
       </c>
@@ -31158,7 +31158,7 @@
         <v>54.940583552100343</v>
       </c>
     </row>
-    <row r="179" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>0.29864299999999999</v>
       </c>
@@ -31331,7 +31331,7 @@
         <v>54.573583472359253</v>
       </c>
     </row>
-    <row r="180" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>0.29928900000000003</v>
       </c>
@@ -31504,7 +31504,7 @@
         <v>54.482609221772968</v>
       </c>
     </row>
-    <row r="181" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>0.301875</v>
       </c>
@@ -31677,7 +31677,7 @@
         <v>54.121210663708119</v>
       </c>
     </row>
-    <row r="182" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>0.30252099999999998</v>
       </c>
@@ -31850,7 +31850,7 @@
         <v>54.031618622074454</v>
       </c>
     </row>
-    <row r="183" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>0.30316700000000002</v>
       </c>
@@ -32023,7 +32023,7 @@
         <v>53.942298826391784</v>
       </c>
     </row>
-    <row r="184" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>0.30446000000000001</v>
       </c>
@@ -32196,7 +32196,7 @@
         <v>53.764333481136298</v>
       </c>
     </row>
-    <row r="185" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>0.310278</v>
       </c>
@@ -32369,7 +32369,7 @@
         <v>52.976710217708167</v>
       </c>
     </row>
-    <row r="186" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>0.321913</v>
       </c>
@@ -32542,7 +32542,7 @@
         <v>51.463263876237967</v>
       </c>
     </row>
-    <row r="187" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>0.33031700000000003</v>
       </c>
@@ -32715,7 +32715,7 @@
         <v>50.418148780818647</v>
       </c>
     </row>
-    <row r="188" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>0.332256</v>
       </c>
@@ -32888,7 +32888,7 @@
         <v>50.182446900837611</v>
       </c>
     </row>
-    <row r="189" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>0.33290199999999998</v>
       </c>
@@ -33061,7 +33061,7 @@
         <v>50.104360834864416</v>
       </c>
     </row>
-    <row r="190" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>0.33807399999999999</v>
       </c>
@@ -33234,7 +33234,7 @@
         <v>49.486989557858273</v>
       </c>
     </row>
-    <row r="191" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>0.34324500000000002</v>
       </c>
@@ -33407,7 +33407,7 @@
         <v>48.883259679391891</v>
       </c>
     </row>
-    <row r="192" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>0.343891</v>
       </c>
@@ -33580,7 +33580,7 @@
         <v>48.808763832695071</v>
       </c>
     </row>
-    <row r="193" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>0.34777000000000002</v>
       </c>
@@ -33753,7 +33753,7 @@
         <v>48.365677575601403</v>
       </c>
     </row>
-    <row r="194" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>0.350356</v>
       </c>
@@ -33926,7 +33926,7 @@
         <v>48.074256918025242</v>
       </c>
     </row>
-    <row r="195" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>0.35100199999999998</v>
       </c>
@@ -34099,7 +34099,7 @@
         <v>48.001946135514643</v>
       </c>
     </row>
-    <row r="196" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>0.35229500000000002</v>
       </c>
@@ -34272,7 +34272,7 @@
         <v>47.857792842204375</v>
       </c>
     </row>
-    <row r="197" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>0.35358800000000001</v>
       </c>
@@ -34445,7 +34445,7 @@
         <v>47.714407880303426</v>
       </c>
     </row>
-    <row r="198" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>0.35423399999999999</v>
       </c>
@@ -34618,7 +34618,7 @@
         <v>47.643056638843412</v>
       </c>
     </row>
-    <row r="199" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>0.35617300000000002</v>
       </c>
@@ -34791,7 +34791,7 @@
         <v>47.430026423590796</v>
       </c>
     </row>
-    <row r="200" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>0.35682000000000003</v>
       </c>
@@ -34964,7 +34964,7 @@
         <v>47.359318972331067</v>
       </c>
     </row>
-    <row r="201" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>0.35811199999999999</v>
       </c>
@@ -35137,7 +35137,7 @@
         <v>47.218680692640255</v>
       </c>
     </row>
-    <row r="202" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>0.36069800000000002</v>
       </c>
@@ -35310,7 +35310,7 @@
         <v>46.939398600843816</v>
       </c>
     </row>
-    <row r="203" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>0.36263699999999999</v>
       </c>
@@ -35483,7 +35483,7 @@
         <v>46.731902341249643</v>
       </c>
     </row>
-    <row r="204" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>0.367809</v>
       </c>
@@ -35656,7 +35656,7 @@
         <v>46.186283448500582</v>
       </c>
     </row>
-    <row r="205" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>0.36845499999999998</v>
       </c>
@@ -35829,7 +35829,7 @@
         <v>46.118922603879604</v>
       </c>
     </row>
-    <row r="206" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>0.370394</v>
       </c>
@@ -36002,7 +36002,7 @@
         <v>45.917770552610286</v>
       </c>
     </row>
-    <row r="207" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>0.37168699999999999</v>
       </c>
@@ -36175,7 +36175,7 @@
         <v>45.784490311277921</v>
       </c>
     </row>
-    <row r="208" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>0.372334</v>
       </c>
@@ -36348,7 +36348,7 @@
         <v>45.718053581457667</v>
       </c>
     </row>
-    <row r="209" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>0.374919</v>
       </c>
@@ -36521,7 +36521,7 @@
         <v>45.454295603269223</v>
       </c>
     </row>
-    <row r="210" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>0.37621199999999999</v>
       </c>
@@ -36694,7 +36694,7 @@
         <v>45.323364948147912</v>
       </c>
     </row>
-    <row r="211" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>0.37685800000000003</v>
       </c>
@@ -36867,7 +36867,7 @@
         <v>45.25819755720115</v>
       </c>
     </row>
-    <row r="212" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>0.37815100000000001</v>
       </c>
@@ -37040,7 +37040,7 @@
         <v>45.128253589560202</v>
       </c>
     </row>
-    <row r="213" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>0.37879800000000002</v>
       </c>
@@ -37213,7 +37213,7 @@
         <v>45.06347620811399</v>
       </c>
     </row>
-    <row r="214" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>0.38008999999999998</v>
       </c>
@@ -37386,7 +37386,7 @@
         <v>44.934607132737746</v>
       </c>
     </row>
-    <row r="215" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>0.38138300000000003</v>
       </c>
@@ -37559,7 +37559,7 @@
         <v>44.806281706676046</v>
       </c>
     </row>
-    <row r="216" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>0.38267600000000002</v>
       </c>
@@ -37732,7 +37732,7 @@
         <v>44.678594823980539</v>
       </c>
     </row>
-    <row r="217" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>0.38590799999999997</v>
       </c>
@@ -37905,7 +37905,7 @@
         <v>44.362186921546268</v>
       </c>
     </row>
-    <row r="218" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>0.38655499999999998</v>
       </c>
@@ -38078,7 +38078,7 @@
         <v>44.299315264146358</v>
       </c>
     </row>
-    <row r="219" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>0.38913999999999999</v>
       </c>
@@ -38251,7 +38251,7 @@
         <v>44.049660009304702</v>
       </c>
     </row>
-    <row r="220" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>0.39625100000000002</v>
       </c>
@@ -38424,7 +38424,7 @@
         <v>43.375337923117861</v>
       </c>
     </row>
-    <row r="221" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>0.396897</v>
       </c>
@@ -38597,7 +38597,7 @@
         <v>43.31496513911631</v>
       </c>
     </row>
-    <row r="222" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>0.39754400000000001</v>
       </c>
@@ -38770,7 +38770,7 @@
         <v>43.25464437773207</v>
       </c>
     </row>
-    <row r="223" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>0.39883600000000002</v>
       </c>
@@ -38943,7 +38943,7 @@
         <v>43.134622750716538</v>
       </c>
     </row>
-    <row r="224" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>0.40012900000000001</v>
       </c>
@@ -39116,7 +39116,7 @@
         <v>43.015082841516019</v>
       </c>
     </row>
-    <row r="225" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>0.40206900000000001</v>
       </c>
@@ -39289,7 +39289,7 @@
         <v>42.83679547480925</v>
       </c>
     </row>
-    <row r="226" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>0.40530100000000002</v>
       </c>
@@ -39462,7 +39462,7 @@
         <v>42.542584951058181</v>
       </c>
     </row>
-    <row r="227" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>0.405947</v>
       </c>
@@ -39635,7 +39635,7 @@
         <v>42.484196017617471</v>
       </c>
     </row>
-    <row r="228" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>0.40659299999999998</v>
       </c>
@@ -39808,7 +39808,7 @@
         <v>42.425944716550475</v>
       </c>
     </row>
-    <row r="229" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>0.40853299999999998</v>
       </c>
@@ -39981,7 +39981,7 @@
         <v>42.251832601808019</v>
       </c>
     </row>
-    <row r="230" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>0.40982499999999999</v>
       </c>
@@ -40154,7 +40154,7 @@
         <v>42.136556721672036</v>
       </c>
     </row>
-    <row r="231" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>0.410472</v>
       </c>
@@ -40327,7 +40327,7 @@
         <v>42.079032093692817</v>
       </c>
     </row>
-    <row r="232" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>0.41176499999999999</v>
       </c>
@@ -40500,7 +40500,7 @@
         <v>41.964474208341223</v>
       </c>
     </row>
-    <row r="233" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>0.414997</v>
       </c>
@@ -40673,7 +40673,7 @@
         <v>41.680447183046269</v>
       </c>
     </row>
-    <row r="234" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>0.41564299999999998</v>
       </c>
@@ -40846,7 +40846,7 @@
         <v>41.62407101363538</v>
       </c>
     </row>
-    <row r="235" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>0.41952200000000001</v>
       </c>
@@ -41019,7 +41019,7 @@
         <v>41.28827298258949</v>
       </c>
     </row>
-    <row r="236" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>0.42081400000000002</v>
       </c>
@@ -41192,7 +41192,7 @@
         <v>41.177451168689245</v>
       </c>
     </row>
-    <row r="237" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>0.427925</v>
       </c>
@@ -41365,7 +41365,7 @@
         <v>40.576455214382676</v>
       </c>
     </row>
-    <row r="238" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>0.42857099999999998</v>
       </c>
@@ -41538,7 +41538,7 @@
         <v>40.522595882780927</v>
       </c>
     </row>
-    <row r="239" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>0.42921799999999999</v>
       </c>
@@ -41711,7 +41711,7 @@
         <v>40.468774514809624</v>
       </c>
     </row>
-    <row r="240" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>0.43374299999999999</v>
       </c>
@@ -41884,7 +41884,7 @@
         <v>40.095716027999863</v>
       </c>
     </row>
-    <row r="241" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>0.43956000000000001</v>
       </c>
@@ -42057,7 +42057,7 @@
         <v>39.624601417435606</v>
       </c>
     </row>
-    <row r="242" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>0.4415</v>
       </c>
@@ -42230,7 +42230,7 @@
         <v>39.469552006185644</v>
       </c>
     </row>
-    <row r="243" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>0.45184200000000002</v>
       </c>
@@ -42403,7 +42403,7 @@
         <v>38.659907243684806</v>
       </c>
     </row>
-    <row r="244" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>0.45248899999999997</v>
       </c>
@@ -42576,7 +42576,7 @@
         <v>38.610180631098544</v>
       </c>
     </row>
-    <row r="245" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>0.45313500000000001</v>
       </c>
@@ -42749,7 +42749,7 @@
         <v>38.560637337205826</v>
       </c>
     </row>
-    <row r="246" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>0.45572099999999999</v>
       </c>
@@ -42922,7 +42922,7 @@
         <v>38.363368828157817</v>
       </c>
     </row>
-    <row r="247" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>0.45701399999999998</v>
       </c>
@@ -43095,7 +43095,7 @@
         <v>38.265364493546691</v>
       </c>
     </row>
-    <row r="248" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>0.45766000000000001</v>
       </c>
@@ -43268,7 +43268,7 @@
         <v>38.216556302537825</v>
       </c>
     </row>
-    <row r="249" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>0.45830599999999999</v>
       </c>
@@ -43441,7 +43441,7 @@
         <v>38.167851642649111</v>
       </c>
     </row>
-    <row r="250" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>0.463478</v>
       </c>
@@ -43614,7 +43614,7 @@
         <v>37.781603802629732</v>
       </c>
     </row>
-    <row r="251" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>0.46412399999999998</v>
       </c>
@@ -43787,7 +43787,7 @@
         <v>37.733816058143297</v>
       </c>
     </row>
-    <row r="252" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>0.46541700000000003</v>
       </c>
@@ -43960,7 +43960,7 @@
         <v>37.638466998219862</v>
       </c>
     </row>
-    <row r="253" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>0.46606300000000001</v>
       </c>
@@ -44133,7 +44133,7 @@
         <v>37.590978760851989</v>
       </c>
     </row>
-    <row r="254" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>0.46864899999999998</v>
       </c>
@@ -44306,7 +44306,7 @@
         <v>37.401868114944769</v>
       </c>
     </row>
-    <row r="255" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>0.47317399999999998</v>
       </c>
@@ -44479,7 +44479,7 @@
         <v>37.074719902821627</v>
       </c>
     </row>
-    <row r="256" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>0.47705199999999998</v>
       </c>
@@ -44652,7 +44652,7 @@
         <v>36.798084938772959</v>
       </c>
     </row>
-    <row r="257" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>0.480931</v>
       </c>
@@ -44825,7 +44825,7 @@
         <v>36.524758138889958</v>
       </c>
     </row>
-    <row r="258" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>0.48157699999999998</v>
       </c>
@@ -44998,7 +44998,7 @@
         <v>36.4795626286379</v>
       </c>
     </row>
-    <row r="259" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>0.48222399999999999</v>
       </c>
@@ -45171,7 +45171,7 @@
         <v>36.434389006611596</v>
       </c>
     </row>
-    <row r="260" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>0.48287000000000002</v>
       </c>
@@ -45344,7 +45344,7 @@
         <v>36.389376618107768</v>
       </c>
     </row>
-    <row r="261" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>0.483516</v>
       </c>
@@ -45517,7 +45517,7 @@
         <v>36.34445527887393</v>
       </c>
     </row>
-    <row r="262" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>0.48480899999999999</v>
       </c>
@@ -45690,7 +45690,7 @@
         <v>36.254815394409199</v>
       </c>
     </row>
-    <row r="263" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>0.48674899999999999</v>
       </c>
@@ -45863,7 +45863,7 @@
         <v>36.120997836717223</v>
       </c>
     </row>
-    <row r="264" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>0.488041</v>
       </c>
@@ -46036,7 +46036,7 @@
         <v>36.032325434835251</v>
       </c>
     </row>
-    <row r="265" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>0.48868800000000001</v>
       </c>
@@ -46209,7 +46209,7 @@
         <v>35.988054140071021</v>
       </c>
     </row>
-    <row r="266" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>0.489981</v>
       </c>
@@ -46382,7 +46382,7 @@
         <v>35.899845570548585</v>
       </c>
     </row>
-    <row r="267" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>0.49062699999999998</v>
       </c>
@@ -46555,7 +46555,7 @@
         <v>35.855907461170304</v>
       </c>
     </row>
-    <row r="268" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>0.49127300000000002</v>
       </c>
@@ -46728,7 +46728,7 @@
         <v>35.812056978442023</v>
       </c>
     </row>
-    <row r="269" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>0.49192000000000002</v>
       </c>
@@ -46901,7 +46901,7 @@
         <v>35.768226168139286</v>
       </c>
     </row>
-    <row r="270" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>0.49385899999999999</v>
       </c>
@@ -47074,7 +47074,7 @@
         <v>35.637391242585366</v>
       </c>
     </row>
-    <row r="271" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>0.49515199999999998</v>
       </c>
@@ -47247,7 +47247,7 @@
         <v>35.55057778810464</v>
       </c>
     </row>
-    <row r="272" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>0.49709100000000001</v>
       </c>
@@ -47420,7 +47420,7 @@
         <v>35.421034072553141</v>
       </c>
     </row>
-    <row r="273" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>0.50549500000000003</v>
       </c>
@@ -47593,7 +47593,7 @@
         <v>34.868318371867211</v>
       </c>
     </row>
-    <row r="274" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>0.50872700000000004</v>
       </c>
@@ -47766,7 +47766,7 @@
         <v>34.659460704310213</v>
       </c>
     </row>
-    <row r="275" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>0.51842299999999997</v>
       </c>
@@ -47939,7 +47939,7 @@
         <v>34.044826449605175</v>
       </c>
     </row>
-    <row r="276" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>0.52488699999999999</v>
       </c>
@@ -48112,7 +48112,7 @@
         <v>33.644721924451581</v>
       </c>
     </row>
-    <row r="277" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>0.52876500000000004</v>
       </c>
@@ -48285,7 +48285,7 @@
         <v>33.408276049023542</v>
       </c>
     </row>
-    <row r="278" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>0.54686500000000005</v>
       </c>
@@ -48458,7 +48458,7 @@
         <v>32.33882186501797</v>
       </c>
     </row>
-    <row r="279" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>0.55656099999999997</v>
       </c>
@@ -48631,7 +48631,7 @@
         <v>31.787972099838832</v>
       </c>
     </row>
-    <row r="280" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>0.56690399999999996</v>
       </c>
@@ -48804,7 +48804,7 @@
         <v>31.216389627801199</v>
       </c>
     </row>
-    <row r="281" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>0.57918599999999998</v>
       </c>
@@ -48977,7 +48977,7 @@
         <v>30.558157829501944</v>
       </c>
     </row>
-    <row r="282" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>0.58306400000000003</v>
       </c>
@@ -49150,7 +49150,7 @@
         <v>30.354776091866299</v>
       </c>
     </row>
-    <row r="283" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>0.59082100000000004</v>
       </c>
@@ -49323,7 +49323,7 @@
         <v>29.954160620236202</v>
       </c>
     </row>
-    <row r="284" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>0.59405300000000005</v>
       </c>
@@ -49496,7 +49496,7 @@
         <v>29.789631915614933</v>
       </c>
     </row>
-    <row r="285" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>0.59469899999999998</v>
       </c>
@@ -49669,7 +49669,7 @@
         <v>29.756912430903654</v>
       </c>
     </row>
-    <row r="286" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>0.59534600000000004</v>
       </c>
@@ -49842,7 +49842,7 @@
         <v>29.724197350744639</v>
       </c>
     </row>
-    <row r="287" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>0.59663900000000003</v>
       </c>
@@ -50015,7 +50015,7 @@
         <v>29.658982246877301</v>
       </c>
     </row>
-    <row r="288" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>0.59728499999999995</v>
       </c>
@@ -50188,7 +50188,7 @@
         <v>29.626481763067765</v>
       </c>
     </row>
-    <row r="289" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>0.60051699999999997</v>
       </c>
@@ -50361,7 +50361,7 @@
         <v>29.464691960624997</v>
       </c>
     </row>
-    <row r="290" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>0.61085999999999996</v>
       </c>
@@ -50534,7 +50534,7 @@
         <v>28.955870867560712</v>
       </c>
     </row>
-    <row r="291" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>0.61150599999999999</v>
       </c>
@@ -50707,7 +50707,7 @@
         <v>28.924534280903238</v>
       </c>
     </row>
-    <row r="292" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>0.61279899999999998</v>
       </c>
@@ -50880,7 +50880,7 @@
         <v>28.861966558166358</v>
       </c>
     </row>
-    <row r="293" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>0.61538499999999996</v>
       </c>
@@ -51053,7 +51053,7 @@
         <v>28.737443397860432</v>
       </c>
     </row>
-    <row r="294" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>0.61732399999999998</v>
       </c>
@@ -51226,7 +51226,7 @@
         <v>28.644606520195467</v>
       </c>
     </row>
-    <row r="295" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>0.61797000000000002</v>
       </c>
@@ -51399,7 +51399,7 @@
         <v>28.613777302377756</v>
       </c>
     </row>
-    <row r="296" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>0.61861699999999997</v>
       </c>
@@ -51572,7 +51572,7 @@
         <v>28.582950467344197</v>
       </c>
     </row>
-    <row r="297" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>0.620556</v>
       </c>
@@ -51745,7 +51745,7 @@
         <v>28.49086429815803</v>
       </c>
     </row>
-    <row r="298" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>0.629606</v>
       </c>
@@ -51918,7 +51918,7 @@
         <v>28.066906589373389</v>
       </c>
     </row>
-    <row r="299" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>0.63865499999999997</v>
       </c>
@@ -52091,7 +52091,7 @@
         <v>27.652366619637327</v>
       </c>
     </row>
-    <row r="300" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>0.63930200000000004</v>
       </c>
@@ -52264,7 +52264,7 @@
         <v>27.623077457218173</v>
       </c>
     </row>
-    <row r="301" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>0.65029099999999995</v>
       </c>
@@ -52437,7 +52437,7 @@
         <v>27.132567070587378</v>
       </c>
     </row>
-    <row r="302" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>0.65093699999999999</v>
       </c>
@@ -52610,7 +52610,7 @@
         <v>27.104134234097842</v>
       </c>
     </row>
-    <row r="303" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>0.663219</v>
       </c>
@@ -52783,7 +52783,7 @@
         <v>26.571804673543355</v>
       </c>
     </row>
-    <row r="304" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>0.667744</v>
       </c>
@@ -52956,7 +52956,7 @@
         <v>26.379545545358972</v>
       </c>
     </row>
-    <row r="305" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>0.67097600000000002</v>
       </c>
@@ -53129,7 +53129,7 @@
         <v>26.243466217448024</v>
       </c>
     </row>
-    <row r="306" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>0.67162200000000005</v>
       </c>
@@ -53302,7 +53302,7 @@
         <v>26.216390073686291</v>
       </c>
     </row>
-    <row r="307" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>0.67226900000000001</v>
       </c>
@@ -53475,7 +53475,7 @@
         <v>26.189312822600591</v>
       </c>
     </row>
-    <row r="308" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>0.67550100000000002</v>
       </c>
@@ -53648,7 +53648,7 @@
         <v>26.054660262386967</v>
       </c>
     </row>
-    <row r="309" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>0.68002600000000002</v>
       </c>
@@ -53821,7 +53821,7 @@
         <v>25.86782361859278</v>
       </c>
     </row>
-    <row r="310" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>0.682612</v>
       </c>
@@ -53994,7 +53994,7 @@
         <v>25.761919880044381</v>
       </c>
     </row>
-    <row r="311" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>0.68519699999999994</v>
       </c>
@@ -54167,7 +54167,7 @@
         <v>25.656683434161799</v>
       </c>
     </row>
-    <row r="312" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>0.68584400000000001</v>
       </c>
@@ -54340,7 +54340,7 @@
         <v>25.630441085905076</v>
       </c>
     </row>
-    <row r="313" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>0.68842899999999996</v>
       </c>
@@ -54513,7 +54513,7 @@
         <v>25.525979390331436</v>
       </c>
     </row>
-    <row r="314" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>0.68907600000000002</v>
       </c>
@@ -54686,7 +54686,7 @@
         <v>25.49992982509287</v>
       </c>
     </row>
-    <row r="315" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>0.69036799999999998</v>
       </c>
@@ -54859,7 +54859,7 @@
         <v>25.44802580431255</v>
       </c>
     </row>
-    <row r="316" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>0.69166099999999997</v>
       </c>
@@ -55032,7 +55032,7 @@
         <v>25.39623389864569</v>
       </c>
     </row>
-    <row r="317" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>0.69360100000000002</v>
       </c>
@@ -55205,7 +55205,7 @@
         <v>25.318810239396157</v>
       </c>
     </row>
-    <row r="318" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>0.69618599999999997</v>
       </c>
@@ -55378,7 +55378,7 @@
         <v>25.216171617817437</v>
       </c>
     </row>
-    <row r="319" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>0.69747899999999996</v>
       </c>
@@ -55551,7 +55551,7 @@
         <v>25.165056554330938</v>
       </c>
     </row>
-    <row r="320" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>0.698125</v>
       </c>
@@ -55724,7 +55724,7 @@
         <v>25.139574470124934</v>
       </c>
     </row>
-    <row r="321" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>0.70394299999999999</v>
       </c>
@@ -55897,7 +55897,7 @@
         <v>24.911734432573546</v>
       </c>
     </row>
-    <row r="322" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>0.70588200000000001</v>
       </c>
@@ -56070,7 +56070,7 @@
         <v>24.83645677732499</v>
       </c>
     </row>
-    <row r="323" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>0.70652899999999996</v>
       </c>
@@ -56243,7 +56243,7 @@
         <v>24.811410594718318</v>
       </c>
     </row>
-    <row r="324" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>0.707175</v>
       </c>
@@ -56416,7 +56416,7 @@
         <v>24.786439056528998</v>
       </c>
     </row>
-    <row r="325" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>0.71234600000000003</v>
       </c>
@@ -56589,7 +56589,7 @@
         <v>24.587835059295315</v>
       </c>
     </row>
-    <row r="326" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>0.71557899999999997</v>
       </c>
@@ -56762,7 +56762,7 @@
         <v>24.464812231545856</v>
       </c>
     </row>
-    <row r="327" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>0.72075</v>
       </c>
@@ -56935,7 +56935,7 @@
         <v>24.269851461772369</v>
       </c>
     </row>
-    <row r="328" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>0.72139600000000004</v>
       </c>
@@ -57108,7 +57108,7 @@
         <v>24.245650152892409</v>
       </c>
     </row>
-    <row r="329" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>0.72204299999999999</v>
       </c>
@@ -57281,7 +57281,7 @@
         <v>24.221445553420708</v>
       </c>
     </row>
-    <row r="330" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>0.73044600000000004</v>
       </c>
@@ -57454,7 +57454,7 @@
         <v>23.910157196518384</v>
       </c>
     </row>
-    <row r="331" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>0.73367800000000005</v>
       </c>
@@ -57627,7 +57627,7 @@
         <v>23.791926054987236</v>
       </c>
     </row>
-    <row r="332" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>0.73561699999999997</v>
       </c>
@@ -57800,7 +57800,7 @@
         <v>23.721387976421745</v>
       </c>
     </row>
-    <row r="333" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>0.73626400000000003</v>
       </c>
@@ -57973,7 +57973,7 @@
         <v>23.697916228858979</v>
       </c>
     </row>
-    <row r="334" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>0.74014199999999997</v>
       </c>
@@ -58146,7 +58146,7 @@
         <v>23.557909683913167</v>
       </c>
     </row>
-    <row r="335" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>0.74078900000000003</v>
       </c>
@@ -58319,7 +58319,7 @@
         <v>23.534663788710347</v>
       </c>
     </row>
-    <row r="336" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>0.74919199999999997</v>
       </c>
@@ -58492,7 +58492,7 @@
         <v>23.235637307424533</v>
       </c>
     </row>
-    <row r="337" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>0.75048499999999996</v>
       </c>
@@ -58665,7 +58665,7 @@
         <v>23.190094807088144</v>
       </c>
     </row>
-    <row r="338" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>0.75242399999999998</v>
       </c>
@@ -58838,7 +58838,7 @@
         <v>23.122030476802223</v>
       </c>
     </row>
-    <row r="339" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>0.75888800000000001</v>
       </c>
@@ -59011,7 +59011,7 @@
         <v>22.897113754169922</v>
       </c>
     </row>
-    <row r="340" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>0.760181</v>
       </c>
@@ -59184,7 +59184,7 @@
         <v>22.852486599364795</v>
       </c>
     </row>
-    <row r="341" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>0.76212000000000002</v>
       </c>
@@ -59357,7 +59357,7 @@
         <v>22.785787622436288</v>
       </c>
     </row>
-    <row r="342" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>0.76341300000000001</v>
       </c>
@@ -59530,7 +59530,7 @@
         <v>22.741459136179969</v>
       </c>
     </row>
-    <row r="343" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>0.76729199999999997</v>
       </c>
@@ -59703,7 +59703,7 @@
         <v>22.60918329214374</v>
       </c>
     </row>
-    <row r="344" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>0.76793800000000001</v>
       </c>
@@ -59876,7 +59876,7 @@
         <v>22.587257109369062</v>
       </c>
     </row>
-    <row r="345" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>0.77181599999999995</v>
       </c>
@@ -60049,7 +60049,7 @@
         <v>22.456243157598884</v>
       </c>
     </row>
-    <row r="346" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>0.773756</v>
       </c>
@@ -60222,7 +60222,7 @@
         <v>22.391092760925844</v>
       </c>
     </row>
-    <row r="347" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>0.77504799999999996</v>
       </c>
@@ -60395,7 +60395,7 @@
         <v>22.347847254728258</v>
       </c>
     </row>
-    <row r="348" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>0.77569500000000002</v>
       </c>
@@ -60568,7 +60568,7 @@
         <v>22.326233906784438</v>
       </c>
     </row>
-    <row r="349" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>0.78345200000000004</v>
       </c>
@@ -60741,7 +60741,7 @@
         <v>22.06931256908949</v>
       </c>
     </row>
-    <row r="350" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>0.78409799999999996</v>
       </c>
@@ -60914,7 +60914,7 @@
         <v>22.048098097968577</v>
       </c>
     </row>
-    <row r="351" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>0.78539099999999995</v>
       </c>
@@ -61087,7 +61087,7 @@
         <v>22.005719434516394</v>
       </c>
     </row>
-    <row r="352" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>0.78927000000000003</v>
       </c>
@@ -61260,7 +61260,7 @@
         <v>21.879244467817834</v>
       </c>
     </row>
-    <row r="353" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>0.79444099999999995</v>
       </c>
@@ -61433,7 +61433,7 @@
         <v>21.712168920095486</v>
       </c>
     </row>
-    <row r="354" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>0.79573400000000005</v>
       </c>
@@ -61606,7 +61606,7 @@
         <v>21.670661382117046</v>
       </c>
     </row>
-    <row r="355" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>0.79702700000000004</v>
       </c>
@@ -61779,7 +61779,7 @@
         <v>21.629260754463296</v>
       </c>
     </row>
-    <row r="356" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>0.80995499999999998</v>
       </c>
@@ -61952,7 +61952,7 @@
         <v>21.221102532335834</v>
       </c>
     </row>
-    <row r="357" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>0.81383300000000003</v>
       </c>
@@ -62125,7 +62125,7 @@
         <v>21.100679896639157</v>
       </c>
     </row>
-    <row r="358" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>0.81900499999999998</v>
       </c>
@@ -62298,7 +62298,7 @@
         <v>20.941487603815233</v>
       </c>
     </row>
-    <row r="359" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>0.82482200000000006</v>
       </c>
@@ -62471,7 +62471,7 @@
         <v>20.764342487368289</v>
       </c>
     </row>
-    <row r="360" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>0.82870100000000002</v>
       </c>
@@ -62644,7 +62644,7 @@
         <v>20.647316409307862</v>
       </c>
     </row>
-    <row r="361" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>0.83451799999999998</v>
       </c>
@@ -62817,7 +62817,7 @@
         <v>20.47344804163793</v>
       </c>
     </row>
-    <row r="362" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>0.83581099999999997</v>
       </c>
@@ -62990,7 +62990,7 @@
         <v>20.435062689916769</v>
       </c>
     </row>
-    <row r="363" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>0.83969000000000005</v>
       </c>
@@ -63163,7 +63163,7 @@
         <v>20.320472169408852</v>
       </c>
     </row>
-    <row r="364" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>0.84356799999999998</v>
       </c>
@@ -63336,7 +63336,7 @@
         <v>20.206751526850049</v>
       </c>
     </row>
-    <row r="365" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>0.84550700000000001</v>
       </c>
@@ -63509,7 +63509,7 @@
         <v>20.150203257577544</v>
       </c>
     </row>
-    <row r="366" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>0.8468</v>
       </c>
@@ -63682,7 +63682,7 @@
         <v>20.112609491756054</v>
       </c>
     </row>
-    <row r="367" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>0.84744699999999995</v>
       </c>
@@ -63855,7 +63855,7 @@
         <v>20.093832420260078</v>
       </c>
     </row>
-    <row r="368" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>0.84873900000000002</v>
       </c>
@@ -64028,7 +64028,7 @@
         <v>20.056404657725167</v>
       </c>
     </row>
-    <row r="369" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>0.85326400000000002</v>
       </c>
@@ -64201,7 +64201,7 @@
         <v>19.926034026827281</v>
       </c>
     </row>
-    <row r="370" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>0.860375</v>
       </c>
@@ -64374,7 +64374,7 @@
         <v>19.723372053067777</v>
       </c>
     </row>
-    <row r="371" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>0.87200999999999995</v>
       </c>
@@ -64547,7 +64547,7 @@
         <v>19.397482941245848</v>
       </c>
     </row>
-    <row r="372" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>0.87653499999999995</v>
       </c>
@@ -64720,7 +64720,7 @@
         <v>19.27261070316036</v>
       </c>
     </row>
-    <row r="373" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>0.87718200000000002</v>
       </c>
@@ -64893,7 +64893,7 @@
         <v>19.254840245971167</v>
       </c>
     </row>
-    <row r="374" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>0.88105999999999995</v>
       </c>
@@ -65066,7 +65066,7 @@
         <v>19.148765110144552</v>
       </c>
     </row>
-    <row r="375" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>0.88558499999999996</v>
       </c>
@@ -65239,7 +65239,7 @@
         <v>19.025932904622309</v>
       </c>
     </row>
-    <row r="376" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>0.88881699999999997</v>
       </c>
@@ -65412,7 +65412,7 @@
         <v>18.938812672178841</v>
       </c>
     </row>
-    <row r="377" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>0.89592799999999995</v>
       </c>
@@ -65585,7 +65585,7 @@
         <v>18.74890568532139</v>
       </c>
     </row>
-    <row r="378" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>0.89851300000000001</v>
       </c>
@@ -65758,7 +65758,7 @@
         <v>18.680467559756167</v>
       </c>
     </row>
-    <row r="379" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>0.90174500000000002</v>
       </c>
@@ -65931,7 +65931,7 @@
         <v>18.595342521585003</v>
       </c>
     </row>
-    <row r="380" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>0.90303800000000001</v>
       </c>
@@ -66104,7 +66104,7 @@
         <v>18.561424024988277</v>
       </c>
     </row>
-    <row r="381" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>0.904331</v>
       </c>
@@ -66277,7 +66277,7 @@
         <v>18.527583276557046</v>
       </c>
     </row>
-    <row r="382" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>0.90691699999999997</v>
       </c>
@@ -66450,7 +66450,7 @@
         <v>18.460133902297869</v>
       </c>
     </row>
-    <row r="383" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>0.908856</v>
       </c>
@@ -66623,7 +66623,7 @@
         <v>18.409761848960557</v>
       </c>
     </row>
-    <row r="384" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>0.90950200000000003</v>
       </c>
@@ -66796,7 +66796,7 @@
         <v>18.393018073210662</v>
       </c>
     </row>
-    <row r="385" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>0.91079500000000002</v>
       </c>
@@ -66969,7 +66969,7 @@
         <v>18.359561821964419</v>
       </c>
     </row>
-    <row r="386" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>0.91144099999999995</v>
       </c>
@@ -67142,7 +67142,7 @@
         <v>18.342875152976262</v>
       </c>
     </row>
-    <row r="387" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>0.913381</v>
       </c>
@@ -67315,7 +67315,7 @@
         <v>18.292877299101399</v>
       </c>
     </row>
-    <row r="388" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>0.91661300000000001</v>
       </c>
@@ -67488,7 +67488,7 @@
         <v>18.209959099263536</v>
       </c>
     </row>
-    <row r="389" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>0.91919799999999996</v>
       </c>
@@ -67661,7 +67661,7 @@
         <v>18.14397682333275</v>
       </c>
     </row>
-    <row r="390" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>0.93147999999999997</v>
       </c>
@@ -67834,7 +67834,7 @@
         <v>17.834501769242365</v>
       </c>
     </row>
-    <row r="391" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>0.93471199999999999</v>
       </c>
@@ -68007,7 +68007,7 @@
         <v>17.754150443319105</v>
       </c>
     </row>
-    <row r="392" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>0.94052999999999998</v>
       </c>
@@ -68180,7 +68180,7 @@
         <v>17.61062748137028</v>
       </c>
     </row>
-    <row r="393" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>0.95539799999999997</v>
       </c>
@@ -68353,7 +68353,7 @@
         <v>17.25025190517168</v>
       </c>
     </row>
-    <row r="394" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>0.956044</v>
       </c>
@@ -68526,7 +68526,7 @@
         <v>17.234798543242611</v>
       </c>
     </row>
-    <row r="395" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>0.95798300000000003</v>
       </c>
@@ -68699,7 +68699,7 @@
         <v>17.188515285367743</v>
       </c>
     </row>
-    <row r="396" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>0.95927600000000002</v>
       </c>
@@ -68872,7 +68872,7 @@
         <v>17.157735535213767</v>
       </c>
     </row>
-    <row r="397" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>0.95992200000000005</v>
       </c>
@@ -69045,7 +69045,7 @@
         <v>17.142382568274286</v>
       </c>
     </row>
-    <row r="398" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>0.96186199999999999</v>
       </c>
@@ -69218,7 +69218,7 @@
         <v>17.096375944889324</v>
       </c>
     </row>
-    <row r="399" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>0.96444700000000005</v>
       </c>
@@ -69391,7 +69391,7 @@
         <v>17.035304962235159</v>
       </c>
     </row>
-    <row r="400" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>0.966387</v>
       </c>
@@ -69564,7 +69564,7 @@
         <v>16.989645063757493</v>
       </c>
     </row>
-    <row r="401" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>0.97091099999999997</v>
       </c>
@@ -69737,7 +69737,7 @@
         <v>16.883739383901379</v>
       </c>
     </row>
-    <row r="402" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>0.97479000000000005</v>
       </c>
@@ -69910,7 +69910,7 @@
         <v>16.793564071844216</v>
       </c>
     </row>
-    <row r="403" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>0.97802199999999995</v>
       </c>
@@ -70083,7 +70083,7 @@
         <v>16.718870088221152</v>
       </c>
     </row>
-    <row r="404" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>0.98125399999999996</v>
       </c>
@@ -70256,7 +70256,7 @@
         <v>16.644572934315768</v>
       </c>
     </row>
-    <row r="405" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>0.9819</v>
       </c>
@@ -70429,7 +70429,7 @@
         <v>16.629769991808729</v>
       </c>
     </row>
-    <row r="406" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>0.98254699999999995</v>
       </c>
@@ -70602,7 +70602,7 @@
         <v>16.614959865710851</v>
       </c>
     </row>
-    <row r="407" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>0.98448599999999997</v>
       </c>
@@ -70775,7 +70775,7 @@
         <v>16.570669295721416</v>
       </c>
     </row>
-    <row r="408" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>0.98577899999999996</v>
       </c>
@@ -70948,7 +70948,7 @@
         <v>16.541212737854046</v>
       </c>
     </row>
-    <row r="409" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>0.986425</v>
       </c>
@@ -71121,7 +71121,7 @@
         <v>16.52651918196289</v>
       </c>
     </row>
-    <row r="410" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>0.98707199999999995</v>
       </c>
@@ -71294,7 +71294,7 @@
         <v>16.511818428951024</v>
       </c>
     </row>
-    <row r="411" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>0.98771799999999998</v>
       </c>
@@ -71467,7 +71467,7 @@
         <v>16.497155895799644</v>
       </c>
     </row>
-    <row r="412" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>0.98836500000000005</v>
       </c>
@@ -71640,7 +71640,7 @@
         <v>16.482486161833791</v>
       </c>
     </row>
-    <row r="413" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>0.98901099999999997</v>
       </c>
@@ -71813,7 +71813,7 @@
         <v>16.467854548266416</v>
       </c>
     </row>
-    <row r="414" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>0.99288900000000002</v>
       </c>
@@ -71986,7 +71986,7 @@
         <v>16.38034257956167</v>
       </c>
     </row>
-    <row r="415" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>0.99418200000000001</v>
       </c>
@@ -72159,7 +72159,7 @@
         <v>16.35128689099956</v>
       </c>
     </row>
-    <row r="416" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>0.99482899999999996</v>
       </c>
@@ -72332,7 +72332,7 @@
         <v>16.336770691826402</v>
       </c>
     </row>
-    <row r="417" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>0.995475</v>
       </c>
@@ -72505,7 +72505,7 @@
         <v>16.322292121676618</v>
       </c>
     </row>
-    <row r="418" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>0.99612199999999995</v>
       </c>

--- a/Raw_data_cleaned/Burley/Burley23.xlsx
+++ b/Raw_data_cleaned/Burley/Burley23.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitvaraaravithya/Documents/tobacco_project_review/Raw_data_cleaned/Burley/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tobacco\Raw_data_cleaned\Burley\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5F07AB6-EB3B-7B41-882A-9937B46BCBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81058CCE-4F3A-44C6-80A9-A1150BCADC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8360" yWindow="2250" windowWidth="28740" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +41,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -355,16 +355,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B9AF02-60A8-FC45-8851-57BAEFFEA3ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A397" zoomScale="32" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:BE418"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>6.4599999999999998E-4</v>
       </c>
@@ -710,7 +710,7 @@
         <v>284.95641490105618</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1.2930000000000001E-3</v>
       </c>
@@ -883,7 +883,7 @@
         <v>278.98270784655915</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1.939E-3</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>273.88030344541124</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2.5860000000000002E-3</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>269.30290994964918</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3.2320000000000001E-3</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>265.11646222615951</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3.8779999999999999E-3</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>261.22903128733697</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5.1710000000000002E-3</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>254.1435143029139</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>9.0500000000000008E-3</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>236.60690185566088</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9.6959999999999998E-3</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>234.07542928151901</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1.0343E-2</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>231.62714911925821</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1.4867E-2</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>216.49301644088771</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1.6160000000000001E-2</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>212.68662093176195</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2.7149E-2</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>186.47873198581428</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2.7796000000000001E-2</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>185.1960931804056</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>3.0380999999999998E-2</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>180.29139588761174</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>3.1028E-2</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>179.11545265752156</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>3.1674000000000001E-2</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>177.96071702693459</v>
       </c>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>3.3612999999999997E-2</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>174.60548163328454</v>
       </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>3.4259999999999999E-2</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>173.52114140844162</v>
       </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>3.6199000000000002E-2</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>170.37031767493696</v>
       </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>3.7491999999999998E-2</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>168.34723856621216</v>
       </c>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>3.8137999999999998E-2</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>167.35864576784152</v>
       </c>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3.9431000000000001E-2</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>165.42241602037379</v>
       </c>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>4.0724000000000003E-2</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>163.54050893617415</v>
       </c>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>4.1369999999999997E-2</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>162.61980462221146</v>
       </c>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>4.3310000000000001E-2</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>159.92932731471026</v>
       </c>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>4.4602000000000003E-2</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>158.19665612446909</v>
       </c>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>4.5894999999999998E-2</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>156.50747702093119</v>
       </c>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>4.6542E-2</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>155.67844510086863</v>
       </c>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4.7835000000000003E-2</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>154.05287974623235</v>
       </c>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>4.9126999999999997E-2</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>152.46865255965889</v>
       </c>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>5.042E-2</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>150.92162710397315</v>
       </c>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>5.1067000000000001E-2</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>150.16144821210798</v>
       </c>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>5.2359000000000003E-2</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>148.67030360561006</v>
       </c>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>5.6238000000000003E-2</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>144.39596192600095</v>
       </c>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>6.0116000000000003E-2</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>140.40023194428298</v>
       </c>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>6.1408999999999998E-2</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>139.1244400279885</v>
       </c>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>6.2056E-2</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>138.49608202127564</v>
       </c>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>6.2701999999999994E-2</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>137.87521342445135</v>
       </c>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>6.4641000000000004E-2</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>136.04963340044958</v>
       </c>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>6.658E-2</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>134.27878957264207</v>
       </c>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>6.9166000000000005E-2</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>131.99755748031183</v>
       </c>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>7.3691000000000006E-2</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>128.21093862292213</v>
       </c>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>7.4983999999999995E-2</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>127.17366083700473</v>
       </c>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>7.5630000000000003E-2</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>126.66249141446768</v>
       </c>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>7.6276999999999998E-2</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>126.15515600893026</v>
       </c>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>7.6923000000000005E-2</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>125.65315336636995</v>
       </c>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>7.7568999999999999E-2</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>125.15562785582101</v>
       </c>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>7.8862000000000002E-2</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>124.17299039249333</v>
       </c>
     </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>8.0155000000000004E-2</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>123.20750775005892</v>
       </c>
     </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>8.0801999999999999E-2</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>122.73067706948574</v>
       </c>
     </row>
-    <row r="53" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>8.2094E-2</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>121.79073227007838</v>
       </c>
     </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>8.2740999999999995E-2</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>121.32604679462374</v>
       </c>
     </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>8.5972999999999994E-2</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>119.06265715424136</v>
       </c>
     </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>8.6619000000000002E-2</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>118.62145464266187</v>
       </c>
     </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>8.9205000000000007E-2</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>116.89095357779472</v>
       </c>
     </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>8.9851E-2</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>116.46733681153391</v>
       </c>
     </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>9.1790999999999998E-2</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>115.21528678508953</v>
       </c>
     </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>9.3082999999999999E-2</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>114.39775254557229</v>
       </c>
     </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>9.3729999999999994E-2</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>113.99312487993264</v>
       </c>
     </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>9.4376000000000002E-2</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>113.59224568532956</v>
       </c>
     </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>9.5022999999999996E-2</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>113.19383396003438</v>
       </c>
     </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>9.5669000000000004E-2</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>112.79908218127311</v>
       </c>
     </row>
-    <row r="65" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>9.6962000000000007E-2</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>112.01795177039499</v>
       </c>
     </row>
-    <row r="66" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>9.7608E-2</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>111.63210255271518</v>
       </c>
     </row>
-    <row r="67" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>9.8254999999999995E-2</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>111.24855516477058</v>
       </c>
     </row>
-    <row r="68" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>9.8901000000000003E-2</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>110.86845948233758</v>
       </c>
     </row>
-    <row r="69" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>0.10148699999999999</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>109.37481274263979</v>
       </c>
     </row>
-    <row r="70" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>0.10278</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>108.64427041507983</v>
       </c>
     </row>
-    <row r="71" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>0.104072</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>107.92479102578181</v>
       </c>
     </row>
-    <row r="72" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>0.105365</v>
       </c>
@@ -12820,7 +12820,7 @@
         <v>107.21501377537808</v>
       </c>
     </row>
-    <row r="73" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>0.107304</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>106.16933712504111</v>
       </c>
     </row>
-    <row r="74" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>0.10795100000000001</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>105.82530000374453</v>
       </c>
     </row>
-    <row r="75" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>0.10989</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>104.80849263173408</v>
       </c>
     </row>
-    <row r="76" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>0.116354</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>101.56518569926109</v>
       </c>
     </row>
-    <row r="77" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>0.119586</v>
       </c>
@@ -13685,7 +13685,7 @@
         <v>100.02258392536118</v>
       </c>
     </row>
-    <row r="78" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>0.12023300000000001</v>
       </c>
@@ -13858,7 +13858,7 @@
         <v>99.719750287250889</v>
       </c>
     </row>
-    <row r="79" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>0.122172</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>98.823745344015862</v>
       </c>
     </row>
-    <row r="80" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>0.124111</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>97.94465852245375</v>
       </c>
     </row>
-    <row r="81" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>0.12540399999999999</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>97.36759550397116</v>
       </c>
     </row>
-    <row r="82" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>0.12992899999999999</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>95.403420133733462</v>
       </c>
     </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>0.13122200000000001</v>
       </c>
@@ -14723,7 +14723,7 @@
         <v>94.857401204157085</v>
       </c>
     </row>
-    <row r="84" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>0.13186800000000001</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>94.587056835337208</v>
       </c>
     </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>0.13445399999999999</v>
       </c>
@@ -15069,7 +15069,7 @@
         <v>93.520847223132719</v>
       </c>
     </row>
-    <row r="86" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>0.13833200000000001</v>
       </c>
@@ -15242,7 +15242,7 @@
         <v>91.96828258347611</v>
       </c>
     </row>
-    <row r="87" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>0.139625</v>
       </c>
@@ -15415,7 +15415,7 @@
         <v>91.462523288918462</v>
       </c>
     </row>
-    <row r="88" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>0.142211</v>
       </c>
@@ -15588,7 +15588,7 @@
         <v>90.468192188544094</v>
       </c>
     </row>
-    <row r="89" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>0.14350399999999999</v>
       </c>
@@ -15761,7 +15761,7 @@
         <v>89.979410417765152</v>
       </c>
     </row>
-    <row r="90" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>0.14415</v>
       </c>
@@ -15934,7 +15934,7 @@
         <v>89.73725777121345</v>
       </c>
     </row>
-    <row r="91" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>0.148675</v>
       </c>
@@ -16107,7 +16107,7 @@
         <v>88.078207843613725</v>
       </c>
     </row>
-    <row r="92" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>0.155139</v>
       </c>
@@ -16280,7 +16280,7 @@
         <v>85.815161520429541</v>
       </c>
     </row>
-    <row r="93" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>0.157078</v>
       </c>
@@ -16453,7 +16453,7 @@
         <v>85.159448455456598</v>
       </c>
     </row>
-    <row r="94" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>0.157725</v>
       </c>
@@ -16626,7 +16626,7 @@
         <v>84.942933267307779</v>
       </c>
     </row>
-    <row r="95" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>0.15901699999999999</v>
       </c>
@@ -16799,7 +16799,7 @@
         <v>84.51393047560488</v>
       </c>
     </row>
-    <row r="96" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>0.159664</v>
       </c>
@@ -16972,7 +16972,7 @@
         <v>84.300759988189824</v>
       </c>
     </row>
-    <row r="97" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>0.161603</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>83.668443800442134</v>
       </c>
     </row>
-    <row r="98" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>0.164189</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>82.840058210756467</v>
       </c>
     </row>
-    <row r="99" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>0.16483500000000001</v>
       </c>
@@ -17491,7 +17491,7 @@
         <v>82.635726116923266</v>
       </c>
     </row>
-    <row r="100" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>0.16548199999999999</v>
       </c>
@@ -17664,7 +17664,7 @@
         <v>82.432104166385315</v>
       </c>
     </row>
-    <row r="101" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>0.17000599999999999</v>
       </c>
@@ -17837,7 +17837,7 @@
         <v>81.036340997752347</v>
       </c>
     </row>
-    <row r="102" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>0.170653</v>
       </c>
@@ -18010,7 +18010,7 @@
         <v>80.840637273179894</v>
       </c>
     </row>
-    <row r="103" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>0.172592</v>
       </c>
@@ -18183,7 +18183,7 @@
         <v>80.259824168639184</v>
       </c>
     </row>
-    <row r="104" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>0.173239</v>
       </c>
@@ -18356,7 +18356,7 @@
         <v>80.067894958373529</v>
       </c>
     </row>
-    <row r="105" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>0.17647099999999999</v>
       </c>
@@ -18529,7 +18529,7 @@
         <v>79.12286169596851</v>
       </c>
     </row>
-    <row r="106" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>0.177763</v>
       </c>
@@ -18702,7 +18702,7 @@
         <v>78.751349317369545</v>
       </c>
     </row>
-    <row r="107" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>0.18099499999999999</v>
       </c>
@@ -18875,7 +18875,7 @@
         <v>77.837196170244496</v>
       </c>
     </row>
-    <row r="108" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>0.18681300000000001</v>
       </c>
@@ -19048,7 +19048,7 @@
         <v>76.244199163827957</v>
       </c>
     </row>
-    <row r="109" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>0.19198399999999999</v>
       </c>
@@ -19221,7 +19221,7 @@
         <v>74.882107840969596</v>
       </c>
     </row>
-    <row r="110" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>0.197156</v>
       </c>
@@ -19394,7 +19394,7 @@
         <v>73.567379953610555</v>
       </c>
     </row>
-    <row r="111" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>0.19844899999999999</v>
       </c>
@@ -19567,7 +19567,7 @@
         <v>73.245827543940607</v>
       </c>
     </row>
-    <row r="112" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>0.20232700000000001</v>
       </c>
@@ -19740,7 +19740,7 @@
         <v>72.297893552121138</v>
       </c>
     </row>
-    <row r="113" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>0.20297299999999999</v>
       </c>
@@ -19913,7 +19913,7 @@
         <v>72.142337565078364</v>
       </c>
     </row>
-    <row r="114" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>0.206206</v>
       </c>
@@ -20086,7 +20086,7 @@
         <v>71.373652388166846</v>
       </c>
     </row>
-    <row r="115" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>0.20749799999999999</v>
       </c>
@@ -20259,7 +20259,7 @@
         <v>71.070957994654677</v>
       </c>
     </row>
-    <row r="116" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>0.20943800000000001</v>
       </c>
@@ -20432,7 +20432,7 @@
         <v>70.621160556608771</v>
       </c>
     </row>
-    <row r="117" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>0.21137700000000001</v>
       </c>
@@ -20605,7 +20605,7 @@
         <v>70.177148215167847</v>
       </c>
     </row>
-    <row r="118" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>0.21460899999999999</v>
       </c>
@@ -20778,7 +20778,7 @@
         <v>69.44909428037127</v>
       </c>
     </row>
-    <row r="119" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>0.215255</v>
       </c>
@@ -20951,7 +20951,7 @@
         <v>69.305343447747561</v>
       </c>
     </row>
-    <row r="120" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>0.21590200000000001</v>
       </c>
@@ -21124,7 +21124,7 @@
         <v>69.16195212785783</v>
       </c>
     </row>
-    <row r="121" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>0.21654799999999999</v>
       </c>
@@ -21297,7 +21297,7 @@
         <v>69.019359798701942</v>
       </c>
     </row>
-    <row r="122" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>0.21848699999999999</v>
       </c>
@@ -21470,7 +21470,7 @@
         <v>68.594789502031915</v>
       </c>
     </row>
-    <row r="123" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>0.22107299999999999</v>
       </c>
@@ -21643,7 +21643,7 @@
         <v>68.036415139332505</v>
       </c>
     </row>
-    <row r="124" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>0.22689100000000001</v>
       </c>
@@ -21816,7 +21816,7 @@
         <v>66.811948861547549</v>
       </c>
     </row>
-    <row r="125" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>0.22883000000000001</v>
       </c>
@@ -21989,7 +21989,7 @@
         <v>66.413312486248813</v>
       </c>
     </row>
-    <row r="126" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>0.23141600000000001</v>
       </c>
@@ -22162,7 +22162,7 @@
         <v>65.888770466610922</v>
       </c>
     </row>
-    <row r="127" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>0.23335500000000001</v>
       </c>
@@ -22335,7 +22335,7 @@
         <v>65.500688277669781</v>
       </c>
     </row>
-    <row r="128" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>0.23594100000000001</v>
       </c>
@@ -22508,7 +22508,7 @@
         <v>64.989923264438872</v>
       </c>
     </row>
-    <row r="129" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>0.239173</v>
       </c>
@@ -22681,7 +22681,7 @@
         <v>64.362249555213666</v>
       </c>
     </row>
-    <row r="130" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>0.241758</v>
       </c>
@@ -22854,7 +22854,7 @@
         <v>63.868551558827825</v>
       </c>
     </row>
-    <row r="131" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>0.243697</v>
       </c>
@@ -23027,7 +23027,7 @@
         <v>63.502972363185485</v>
       </c>
     </row>
-    <row r="132" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>0.24434400000000001</v>
       </c>
@@ -23200,7 +23200,7 @@
         <v>63.381877284483132</v>
       </c>
     </row>
-    <row r="133" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>0.24499000000000001</v>
       </c>
@@ -23373,7 +23373,7 @@
         <v>63.261409525742017</v>
       </c>
     </row>
-    <row r="134" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>0.246283</v>
       </c>
@@ -23546,7 +23546,7 @@
         <v>63.02159842477699</v>
       </c>
     </row>
-    <row r="135" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>0.24693000000000001</v>
       </c>
@@ -23719,7 +23719,7 @@
         <v>62.902251354603997</v>
       </c>
     </row>
-    <row r="136" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>0.24757599999999999</v>
       </c>
@@ -23892,7 +23892,7 @@
         <v>62.783518760384091</v>
       </c>
     </row>
-    <row r="137" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>0.24886900000000001</v>
       </c>
@@ -24065,7 +24065,7 @@
         <v>62.547150557409445</v>
       </c>
     </row>
-    <row r="138" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>0.24951499999999999</v>
       </c>
@@ -24238,7 +24238,7 @@
         <v>62.429692847494742</v>
       </c>
     </row>
-    <row r="139" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>0.250162</v>
       </c>
@@ -24411,7 +24411,7 @@
         <v>62.312474158809842</v>
       </c>
     </row>
-    <row r="140" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>0.25080799999999998</v>
       </c>
@@ -24584,7 +24584,7 @@
         <v>62.19585443059335</v>
       </c>
     </row>
-    <row r="141" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>0.25145400000000001</v>
       </c>
@@ -24757,7 +24757,7 @@
         <v>62.079649781992636</v>
       </c>
     </row>
-    <row r="142" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>0.25339400000000001</v>
       </c>
@@ -24930,7 +24930,7 @@
         <v>61.733147432447957</v>
       </c>
     </row>
-    <row r="143" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>0.25597900000000001</v>
       </c>
@@ -25103,7 +25103,7 @@
         <v>61.277117599752494</v>
       </c>
     </row>
-    <row r="144" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>0.25662600000000002</v>
       </c>
@@ -25276,7 +25276,7 @@
         <v>61.163977262335059</v>
       </c>
     </row>
-    <row r="145" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>0.25791900000000001</v>
       </c>
@@ -25449,7 +25449,7 @@
         <v>60.939054694856914</v>
       </c>
     </row>
-    <row r="146" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>0.26115100000000002</v>
       </c>
@@ -25622,7 +25622,7 @@
         <v>60.383631998812824</v>
       </c>
     </row>
-    <row r="147" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>0.261797</v>
       </c>
@@ -25795,7 +25795,7 @@
         <v>60.273763317798789</v>
       </c>
     </row>
-    <row r="148" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>0.26244299999999998</v>
       </c>
@@ -25968,7 +25968,7 @@
         <v>60.164271900332061</v>
       </c>
     </row>
-    <row r="149" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>0.26308999999999999</v>
       </c>
@@ -26141,7 +26141,7 @@
         <v>60.054987053521195</v>
       </c>
     </row>
-    <row r="150" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>0.26438299999999998</v>
       </c>
@@ -26314,7 +26314,7 @@
         <v>59.837705643782861</v>
       </c>
     </row>
-    <row r="151" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>0.266322</v>
       </c>
@@ -26487,7 +26487,7 @@
         <v>59.514633671778562</v>
       </c>
     </row>
-    <row r="152" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>0.26696799999999998</v>
       </c>
@@ -26660,7 +26660,7 @@
         <v>59.407727632157524</v>
       </c>
     </row>
-    <row r="153" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>0.26826100000000003</v>
       </c>
@@ -26833,7 +26833,7 @@
         <v>59.19483283474505</v>
       </c>
     </row>
-    <row r="154" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>0.26955400000000002</v>
       </c>
@@ -27006,7 +27006,7 @@
         <v>58.983369146655043</v>
       </c>
     </row>
-    <row r="155" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>0.270847</v>
       </c>
@@ -27179,7 +27179,7 @@
         <v>58.773321218323879</v>
       </c>
     </row>
-    <row r="156" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>0.27149299999999998</v>
       </c>
@@ -27352,7 +27352,7 @@
         <v>58.668904112796191</v>
       </c>
     </row>
-    <row r="157" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>0.27343200000000001</v>
       </c>
@@ -27525,7 +27525,7 @@
         <v>58.357572136968294</v>
       </c>
     </row>
-    <row r="158" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>0.27407900000000002</v>
       </c>
@@ -27698,7 +27698,7 @@
         <v>58.254376269134958</v>
       </c>
     </row>
-    <row r="159" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>0.274725</v>
       </c>
@@ -27871,7 +27871,7 @@
         <v>58.151680584703094</v>
       </c>
     </row>
-    <row r="160" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>0.27601799999999999</v>
       </c>
@@ -28044,7 +28044,7 @@
         <v>57.947145632917277</v>
       </c>
     </row>
-    <row r="161" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>0.27666499999999999</v>
       </c>
@@ -28217,7 +28217,7 @@
         <v>57.845303845163862</v>
       </c>
     </row>
-    <row r="162" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>0.27731099999999997</v>
       </c>
@@ -28390,7 +28390,7 @@
         <v>57.743953025102591</v>
       </c>
     </row>
-    <row r="163" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>0.27795700000000001</v>
       </c>
@@ -28563,7 +28563,7 @@
         <v>57.642933761929633</v>
       </c>
     </row>
-    <row r="164" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>0.27989700000000001</v>
       </c>
@@ -28736,7 +28736,7 @@
         <v>57.341538844256114</v>
       </c>
     </row>
-    <row r="165" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>0.28054299999999999</v>
       </c>
@@ -28909,7 +28909,7 @@
         <v>57.241829604539852</v>
       </c>
     </row>
-    <row r="166" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>0.28183599999999998</v>
       </c>
@@ -29082,7 +29082,7 @@
         <v>57.043225380549934</v>
       </c>
     </row>
-    <row r="167" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>0.28248200000000001</v>
       </c>
@@ -29255,7 +29255,7 @@
         <v>56.944480661451927</v>
       </c>
     </row>
-    <row r="168" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>0.283775</v>
       </c>
@@ -29428,7 +29428,7 @@
         <v>56.747792042679684</v>
       </c>
     </row>
-    <row r="169" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>0.28636099999999998</v>
       </c>
@@ -29601,7 +29601,7 @@
         <v>56.358184981820436</v>
       </c>
     </row>
-    <row r="170" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>0.28700700000000001</v>
       </c>
@@ -29774,7 +29774,7 @@
         <v>56.261633933082415</v>
       </c>
     </row>
-    <row r="171" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>0.2883</v>
       </c>
@@ -29947,7 +29947,7 @@
         <v>56.069302427590152</v>
       </c>
     </row>
-    <row r="172" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>0.29088599999999998</v>
       </c>
@@ -30120,7 +30120,7 @@
         <v>55.688277264345437</v>
       </c>
     </row>
-    <row r="173" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>0.29153200000000001</v>
       </c>
@@ -30293,7 +30293,7 @@
         <v>55.59384293717536</v>
       </c>
     </row>
-    <row r="174" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>0.29217799999999999</v>
       </c>
@@ -30466,7 +30466,7 @@
         <v>55.499704738980675</v>
       </c>
     </row>
-    <row r="175" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>0.292825</v>
       </c>
@@ -30639,7 +30639,7 @@
         <v>55.405716146240827</v>
       </c>
     </row>
-    <row r="176" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>0.29476400000000003</v>
       </c>
@@ -30812,7 +30812,7 @@
         <v>55.125796360230815</v>
       </c>
     </row>
-    <row r="177" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>0.29541000000000001</v>
       </c>
@@ -30985,7 +30985,7 @@
         <v>55.033117664762322</v>
       </c>
     </row>
-    <row r="178" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>0.29605700000000001</v>
       </c>
@@ -31158,7 +31158,7 @@
         <v>54.940583552100343</v>
       </c>
     </row>
-    <row r="179" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>0.29864299999999999</v>
       </c>
@@ -31331,7 +31331,7 @@
         <v>54.573583472359253</v>
       </c>
     </row>
-    <row r="180" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>0.29928900000000003</v>
       </c>
@@ -31504,7 +31504,7 @@
         <v>54.482609221772968</v>
       </c>
     </row>
-    <row r="181" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>0.301875</v>
       </c>
@@ -31677,7 +31677,7 @@
         <v>54.121210663708119</v>
       </c>
     </row>
-    <row r="182" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>0.30252099999999998</v>
       </c>
@@ -31850,7 +31850,7 @@
         <v>54.031618622074454</v>
       </c>
     </row>
-    <row r="183" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>0.30316700000000002</v>
       </c>
@@ -32023,7 +32023,7 @@
         <v>53.942298826391784</v>
       </c>
     </row>
-    <row r="184" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>0.30446000000000001</v>
       </c>
@@ -32196,7 +32196,7 @@
         <v>53.764333481136298</v>
       </c>
     </row>
-    <row r="185" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>0.310278</v>
       </c>
@@ -32369,7 +32369,7 @@
         <v>52.976710217708167</v>
       </c>
     </row>
-    <row r="186" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>0.321913</v>
       </c>
@@ -32542,7 +32542,7 @@
         <v>51.463263876237967</v>
       </c>
     </row>
-    <row r="187" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>0.33031700000000003</v>
       </c>
@@ -32715,7 +32715,7 @@
         <v>50.418148780818647</v>
       </c>
     </row>
-    <row r="188" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>0.332256</v>
       </c>
@@ -32888,7 +32888,7 @@
         <v>50.182446900837611</v>
       </c>
     </row>
-    <row r="189" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>0.33290199999999998</v>
       </c>
@@ -33061,7 +33061,7 @@
         <v>50.104360834864416</v>
       </c>
     </row>
-    <row r="190" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>0.33807399999999999</v>
       </c>
@@ -33234,7 +33234,7 @@
         <v>49.486989557858273</v>
       </c>
     </row>
-    <row r="191" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>0.34324500000000002</v>
       </c>
@@ -33407,7 +33407,7 @@
         <v>48.883259679391891</v>
       </c>
     </row>
-    <row r="192" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>0.343891</v>
       </c>
@@ -33580,7 +33580,7 @@
         <v>48.808763832695071</v>
       </c>
     </row>
-    <row r="193" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>0.34777000000000002</v>
       </c>
@@ -33753,7 +33753,7 @@
         <v>48.365677575601403</v>
       </c>
     </row>
-    <row r="194" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>0.350356</v>
       </c>
@@ -33926,7 +33926,7 @@
         <v>48.074256918025242</v>
       </c>
     </row>
-    <row r="195" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>0.35100199999999998</v>
       </c>
@@ -34099,7 +34099,7 @@
         <v>48.001946135514643</v>
       </c>
     </row>
-    <row r="196" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>0.35229500000000002</v>
       </c>
@@ -34272,7 +34272,7 @@
         <v>47.857792842204375</v>
       </c>
     </row>
-    <row r="197" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>0.35358800000000001</v>
       </c>
@@ -34445,7 +34445,7 @@
         <v>47.714407880303426</v>
       </c>
     </row>
-    <row r="198" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>0.35423399999999999</v>
       </c>
@@ -34618,7 +34618,7 @@
         <v>47.643056638843412</v>
       </c>
     </row>
-    <row r="199" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>0.35617300000000002</v>
       </c>
@@ -34791,7 +34791,7 @@
         <v>47.430026423590796</v>
       </c>
     </row>
-    <row r="200" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>0.35682000000000003</v>
       </c>
@@ -34964,7 +34964,7 @@
         <v>47.359318972331067</v>
       </c>
     </row>
-    <row r="201" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>0.35811199999999999</v>
       </c>
@@ -35137,7 +35137,7 @@
         <v>47.218680692640255</v>
       </c>
     </row>
-    <row r="202" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>0.36069800000000002</v>
       </c>
@@ -35310,7 +35310,7 @@
         <v>46.939398600843816</v>
       </c>
     </row>
-    <row r="203" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>0.36263699999999999</v>
       </c>
@@ -35483,7 +35483,7 @@
         <v>46.731902341249643</v>
       </c>
     </row>
-    <row r="204" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>0.367809</v>
       </c>
@@ -35656,7 +35656,7 @@
         <v>46.186283448500582</v>
       </c>
     </row>
-    <row r="205" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>0.36845499999999998</v>
       </c>
@@ -35829,7 +35829,7 @@
         <v>46.118922603879604</v>
       </c>
     </row>
-    <row r="206" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>0.370394</v>
       </c>
@@ -36002,7 +36002,7 @@
         <v>45.917770552610286</v>
       </c>
     </row>
-    <row r="207" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>0.37168699999999999</v>
       </c>
@@ -36175,7 +36175,7 @@
         <v>45.784490311277921</v>
       </c>
     </row>
-    <row r="208" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>0.372334</v>
       </c>
@@ -36348,7 +36348,7 @@
         <v>45.718053581457667</v>
       </c>
     </row>
-    <row r="209" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>0.374919</v>
       </c>
@@ -36521,7 +36521,7 @@
         <v>45.454295603269223</v>
       </c>
     </row>
-    <row r="210" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>0.37621199999999999</v>
       </c>
@@ -36694,7 +36694,7 @@
         <v>45.323364948147912</v>
       </c>
     </row>
-    <row r="211" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>0.37685800000000003</v>
       </c>
@@ -36867,7 +36867,7 @@
         <v>45.25819755720115</v>
       </c>
     </row>
-    <row r="212" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>0.37815100000000001</v>
       </c>
@@ -37040,7 +37040,7 @@
         <v>45.128253589560202</v>
       </c>
     </row>
-    <row r="213" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>0.37879800000000002</v>
       </c>
@@ -37213,7 +37213,7 @@
         <v>45.06347620811399</v>
       </c>
     </row>
-    <row r="214" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>0.38008999999999998</v>
       </c>
@@ -37386,7 +37386,7 @@
         <v>44.934607132737746</v>
       </c>
     </row>
-    <row r="215" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>0.38138300000000003</v>
       </c>
@@ -37559,7 +37559,7 @@
         <v>44.806281706676046</v>
       </c>
     </row>
-    <row r="216" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>0.38267600000000002</v>
       </c>
@@ -37732,7 +37732,7 @@
         <v>44.678594823980539</v>
       </c>
     </row>
-    <row r="217" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>0.38590799999999997</v>
       </c>
@@ -37905,7 +37905,7 @@
         <v>44.362186921546268</v>
       </c>
     </row>
-    <row r="218" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>0.38655499999999998</v>
       </c>
@@ -38078,7 +38078,7 @@
         <v>44.299315264146358</v>
       </c>
     </row>
-    <row r="219" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>0.38913999999999999</v>
       </c>
@@ -38251,7 +38251,7 @@
         <v>44.049660009304702</v>
       </c>
     </row>
-    <row r="220" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>0.39625100000000002</v>
       </c>
@@ -38424,7 +38424,7 @@
         <v>43.375337923117861</v>
       </c>
     </row>
-    <row r="221" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>0.396897</v>
       </c>
@@ -38597,7 +38597,7 @@
         <v>43.31496513911631</v>
       </c>
     </row>
-    <row r="222" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>0.39754400000000001</v>
       </c>
@@ -38770,7 +38770,7 @@
         <v>43.25464437773207</v>
       </c>
     </row>
-    <row r="223" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>0.39883600000000002</v>
       </c>
@@ -38943,7 +38943,7 @@
         <v>43.134622750716538</v>
       </c>
     </row>
-    <row r="224" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>0.40012900000000001</v>
       </c>
@@ -39116,7 +39116,7 @@
         <v>43.015082841516019</v>
       </c>
     </row>
-    <row r="225" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>0.40206900000000001</v>
       </c>
@@ -39289,7 +39289,7 @@
         <v>42.83679547480925</v>
       </c>
     </row>
-    <row r="226" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>0.40530100000000002</v>
       </c>
@@ -39462,7 +39462,7 @@
         <v>42.542584951058181</v>
       </c>
     </row>
-    <row r="227" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>0.405947</v>
       </c>
@@ -39635,7 +39635,7 @@
         <v>42.484196017617471</v>
       </c>
     </row>
-    <row r="228" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>0.40659299999999998</v>
       </c>
@@ -39808,7 +39808,7 @@
         <v>42.425944716550475</v>
       </c>
     </row>
-    <row r="229" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>0.40853299999999998</v>
       </c>
@@ -39981,7 +39981,7 @@
         <v>42.251832601808019</v>
       </c>
     </row>
-    <row r="230" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>0.40982499999999999</v>
       </c>
@@ -40154,7 +40154,7 @@
         <v>42.136556721672036</v>
       </c>
     </row>
-    <row r="231" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>0.410472</v>
       </c>
@@ -40327,7 +40327,7 @@
         <v>42.079032093692817</v>
       </c>
     </row>
-    <row r="232" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>0.41176499999999999</v>
       </c>
@@ -40500,7 +40500,7 @@
         <v>41.964474208341223</v>
       </c>
     </row>
-    <row r="233" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>0.414997</v>
       </c>
@@ -40673,7 +40673,7 @@
         <v>41.680447183046269</v>
       </c>
     </row>
-    <row r="234" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>0.41564299999999998</v>
       </c>
@@ -40846,7 +40846,7 @@
         <v>41.62407101363538</v>
       </c>
     </row>
-    <row r="235" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>0.41952200000000001</v>
       </c>
@@ -41019,7 +41019,7 @@
         <v>41.28827298258949</v>
       </c>
     </row>
-    <row r="236" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>0.42081400000000002</v>
       </c>
@@ -41192,7 +41192,7 @@
         <v>41.177451168689245</v>
       </c>
     </row>
-    <row r="237" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>0.427925</v>
       </c>
@@ -41365,7 +41365,7 @@
         <v>40.576455214382676</v>
       </c>
     </row>
-    <row r="238" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>0.42857099999999998</v>
       </c>
@@ -41538,7 +41538,7 @@
         <v>40.522595882780927</v>
       </c>
     </row>
-    <row r="239" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>0.42921799999999999</v>
       </c>
@@ -41711,7 +41711,7 @@
         <v>40.468774514809624</v>
       </c>
     </row>
-    <row r="240" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>0.43374299999999999</v>
       </c>
@@ -41884,7 +41884,7 @@
         <v>40.095716027999863</v>
       </c>
     </row>
-    <row r="241" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>0.43956000000000001</v>
       </c>
@@ -42057,7 +42057,7 @@
         <v>39.624601417435606</v>
       </c>
     </row>
-    <row r="242" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>0.4415</v>
       </c>
@@ -42230,7 +42230,7 @@
         <v>39.469552006185644</v>
       </c>
     </row>
-    <row r="243" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>0.45184200000000002</v>
       </c>
@@ -42403,7 +42403,7 @@
         <v>38.659907243684806</v>
       </c>
     </row>
-    <row r="244" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>0.45248899999999997</v>
       </c>
@@ -42576,7 +42576,7 @@
         <v>38.610180631098544</v>
       </c>
     </row>
-    <row r="245" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>0.45313500000000001</v>
       </c>
@@ -42749,7 +42749,7 @@
         <v>38.560637337205826</v>
       </c>
     </row>
-    <row r="246" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>0.45572099999999999</v>
       </c>
@@ -42922,7 +42922,7 @@
         <v>38.363368828157817</v>
       </c>
     </row>
-    <row r="247" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>0.45701399999999998</v>
       </c>
@@ -43095,7 +43095,7 @@
         <v>38.265364493546691</v>
       </c>
     </row>
-    <row r="248" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>0.45766000000000001</v>
       </c>
@@ -43268,7 +43268,7 @@
         <v>38.216556302537825</v>
       </c>
     </row>
-    <row r="249" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>0.45830599999999999</v>
       </c>
@@ -43441,7 +43441,7 @@
         <v>38.167851642649111</v>
       </c>
     </row>
-    <row r="250" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>0.463478</v>
       </c>
@@ -43614,7 +43614,7 @@
         <v>37.781603802629732</v>
       </c>
     </row>
-    <row r="251" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>0.46412399999999998</v>
       </c>
@@ -43787,7 +43787,7 @@
         <v>37.733816058143297</v>
       </c>
     </row>
-    <row r="252" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>0.46541700000000003</v>
       </c>
@@ -43960,7 +43960,7 @@
         <v>37.638466998219862</v>
       </c>
     </row>
-    <row r="253" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>0.46606300000000001</v>
       </c>
@@ -44133,7 +44133,7 @@
         <v>37.590978760851989</v>
       </c>
     </row>
-    <row r="254" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>0.46864899999999998</v>
       </c>
@@ -44306,7 +44306,7 @@
         <v>37.401868114944769</v>
       </c>
     </row>
-    <row r="255" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>0.47317399999999998</v>
       </c>
@@ -44479,7 +44479,7 @@
         <v>37.074719902821627</v>
       </c>
     </row>
-    <row r="256" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>0.47705199999999998</v>
       </c>
@@ -44652,7 +44652,7 @@
         <v>36.798084938772959</v>
       </c>
     </row>
-    <row r="257" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>0.480931</v>
       </c>
@@ -44825,7 +44825,7 @@
         <v>36.524758138889958</v>
       </c>
     </row>
-    <row r="258" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>0.48157699999999998</v>
       </c>
@@ -44998,7 +44998,7 @@
         <v>36.4795626286379</v>
       </c>
     </row>
-    <row r="259" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>0.48222399999999999</v>
       </c>
@@ -45171,7 +45171,7 @@
         <v>36.434389006611596</v>
       </c>
     </row>
-    <row r="260" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>0.48287000000000002</v>
       </c>
@@ -45344,7 +45344,7 @@
         <v>36.389376618107768</v>
       </c>
     </row>
-    <row r="261" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>0.483516</v>
       </c>
@@ -45517,7 +45517,7 @@
         <v>36.34445527887393</v>
       </c>
     </row>
-    <row r="262" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>0.48480899999999999</v>
       </c>
@@ -45690,7 +45690,7 @@
         <v>36.254815394409199</v>
       </c>
     </row>
-    <row r="263" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>0.48674899999999999</v>
       </c>
@@ -45863,7 +45863,7 @@
         <v>36.120997836717223</v>
       </c>
     </row>
-    <row r="264" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>0.488041</v>
       </c>
@@ -46036,7 +46036,7 @@
         <v>36.032325434835251</v>
       </c>
     </row>
-    <row r="265" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>0.48868800000000001</v>
       </c>
@@ -46209,7 +46209,7 @@
         <v>35.988054140071021</v>
       </c>
     </row>
-    <row r="266" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>0.489981</v>
       </c>
@@ -46382,7 +46382,7 @@
         <v>35.899845570548585</v>
       </c>
     </row>
-    <row r="267" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>0.49062699999999998</v>
       </c>
@@ -46555,7 +46555,7 @@
         <v>35.855907461170304</v>
       </c>
     </row>
-    <row r="268" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>0.49127300000000002</v>
       </c>
@@ -46728,7 +46728,7 @@
         <v>35.812056978442023</v>
       </c>
     </row>
-    <row r="269" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>0.49192000000000002</v>
       </c>
@@ -46901,7 +46901,7 @@
         <v>35.768226168139286</v>
       </c>
     </row>
-    <row r="270" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>0.49385899999999999</v>
       </c>
@@ -47074,7 +47074,7 @@
         <v>35.637391242585366</v>
       </c>
     </row>
-    <row r="271" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>0.49515199999999998</v>
       </c>
@@ -47247,7 +47247,7 @@
         <v>35.55057778810464</v>
       </c>
     </row>
-    <row r="272" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>0.49709100000000001</v>
       </c>
@@ -47420,7 +47420,7 @@
         <v>35.421034072553141</v>
       </c>
     </row>
-    <row r="273" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>0.50549500000000003</v>
       </c>
@@ -47593,7 +47593,7 @@
         <v>34.868318371867211</v>
       </c>
     </row>
-    <row r="274" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>0.50872700000000004</v>
       </c>
@@ -47766,7 +47766,7 @@
         <v>34.659460704310213</v>
       </c>
     </row>
-    <row r="275" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>0.51842299999999997</v>
       </c>
@@ -47939,7 +47939,7 @@
         <v>34.044826449605175</v>
       </c>
     </row>
-    <row r="276" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>0.52488699999999999</v>
       </c>
@@ -48112,7 +48112,7 @@
         <v>33.644721924451581</v>
       </c>
     </row>
-    <row r="277" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>0.52876500000000004</v>
       </c>
@@ -48285,7 +48285,7 @@
         <v>33.408276049023542</v>
       </c>
     </row>
-    <row r="278" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>0.54686500000000005</v>
       </c>
@@ -48458,7 +48458,7 @@
         <v>32.33882186501797</v>
       </c>
     </row>
-    <row r="279" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>0.55656099999999997</v>
       </c>
@@ -48631,7 +48631,7 @@
         <v>31.787972099838832</v>
       </c>
     </row>
-    <row r="280" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>0.56690399999999996</v>
       </c>
@@ -48804,7 +48804,7 @@
         <v>31.216389627801199</v>
       </c>
     </row>
-    <row r="281" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>0.57918599999999998</v>
       </c>
@@ -48977,7 +48977,7 @@
         <v>30.558157829501944</v>
       </c>
     </row>
-    <row r="282" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>0.58306400000000003</v>
       </c>
@@ -49150,7 +49150,7 @@
         <v>30.354776091866299</v>
       </c>
     </row>
-    <row r="283" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>0.59082100000000004</v>
       </c>
@@ -49323,7 +49323,7 @@
         <v>29.954160620236202</v>
       </c>
     </row>
-    <row r="284" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>0.59405300000000005</v>
       </c>
@@ -49496,7 +49496,7 @@
         <v>29.789631915614933</v>
       </c>
     </row>
-    <row r="285" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>0.59469899999999998</v>
       </c>
@@ -49669,7 +49669,7 @@
         <v>29.756912430903654</v>
       </c>
     </row>
-    <row r="286" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>0.59534600000000004</v>
       </c>
@@ -49842,7 +49842,7 @@
         <v>29.724197350744639</v>
       </c>
     </row>
-    <row r="287" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>0.59663900000000003</v>
       </c>
@@ -50015,7 +50015,7 @@
         <v>29.658982246877301</v>
       </c>
     </row>
-    <row r="288" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>0.59728499999999995</v>
       </c>
@@ -50188,7 +50188,7 @@
         <v>29.626481763067765</v>
       </c>
     </row>
-    <row r="289" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>0.60051699999999997</v>
       </c>
@@ -50361,7 +50361,7 @@
         <v>29.464691960624997</v>
       </c>
     </row>
-    <row r="290" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>0.61085999999999996</v>
       </c>
@@ -50534,7 +50534,7 @@
         <v>28.955870867560712</v>
       </c>
     </row>
-    <row r="291" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>0.61150599999999999</v>
       </c>
@@ -50707,7 +50707,7 @@
         <v>28.924534280903238</v>
       </c>
     </row>
-    <row r="292" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>0.61279899999999998</v>
       </c>
@@ -50880,7 +50880,7 @@
         <v>28.861966558166358</v>
       </c>
     </row>
-    <row r="293" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>0.61538499999999996</v>
       </c>
@@ -51053,7 +51053,7 @@
         <v>28.737443397860432</v>
       </c>
     </row>
-    <row r="294" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>0.61732399999999998</v>
       </c>
@@ -51226,7 +51226,7 @@
         <v>28.644606520195467</v>
       </c>
     </row>
-    <row r="295" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>0.61797000000000002</v>
       </c>
@@ -51399,7 +51399,7 @@
         <v>28.613777302377756</v>
       </c>
     </row>
-    <row r="296" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>0.61861699999999997</v>
       </c>
@@ -51572,7 +51572,7 @@
         <v>28.582950467344197</v>
       </c>
     </row>
-    <row r="297" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>0.620556</v>
       </c>
@@ -51745,7 +51745,7 @@
         <v>28.49086429815803</v>
       </c>
     </row>
-    <row r="298" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>0.629606</v>
       </c>
@@ -51918,7 +51918,7 @@
         <v>28.066906589373389</v>
       </c>
     </row>
-    <row r="299" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>0.63865499999999997</v>
       </c>
@@ -52091,7 +52091,7 @@
         <v>27.652366619637327</v>
       </c>
     </row>
-    <row r="300" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>0.63930200000000004</v>
       </c>
@@ -52264,7 +52264,7 @@
         <v>27.623077457218173</v>
       </c>
     </row>
-    <row r="301" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>0.65029099999999995</v>
       </c>
@@ -52437,7 +52437,7 @@
         <v>27.132567070587378</v>
       </c>
     </row>
-    <row r="302" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>0.65093699999999999</v>
       </c>
@@ -52610,7 +52610,7 @@
         <v>27.104134234097842</v>
       </c>
     </row>
-    <row r="303" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>0.663219</v>
       </c>
@@ -52783,7 +52783,7 @@
         <v>26.571804673543355</v>
       </c>
     </row>
-    <row r="304" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>0.667744</v>
       </c>
@@ -52956,7 +52956,7 @@
         <v>26.379545545358972</v>
       </c>
     </row>
-    <row r="305" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>0.67097600000000002</v>
       </c>
@@ -53129,7 +53129,7 @@
         <v>26.243466217448024</v>
       </c>
     </row>
-    <row r="306" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>0.67162200000000005</v>
       </c>
@@ -53302,7 +53302,7 @@
         <v>26.216390073686291</v>
       </c>
     </row>
-    <row r="307" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>0.67226900000000001</v>
       </c>
@@ -53475,7 +53475,7 @@
         <v>26.189312822600591</v>
       </c>
     </row>
-    <row r="308" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>0.67550100000000002</v>
       </c>
@@ -53648,7 +53648,7 @@
         <v>26.054660262386967</v>
       </c>
     </row>
-    <row r="309" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>0.68002600000000002</v>
       </c>
@@ -53821,7 +53821,7 @@
         <v>25.86782361859278</v>
       </c>
     </row>
-    <row r="310" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>0.682612</v>
       </c>
@@ -53994,7 +53994,7 @@
         <v>25.761919880044381</v>
       </c>
     </row>
-    <row r="311" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>0.68519699999999994</v>
       </c>
@@ -54167,7 +54167,7 @@
         <v>25.656683434161799</v>
       </c>
     </row>
-    <row r="312" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>0.68584400000000001</v>
       </c>
@@ -54340,7 +54340,7 @@
         <v>25.630441085905076</v>
       </c>
     </row>
-    <row r="313" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>0.68842899999999996</v>
       </c>
@@ -54513,7 +54513,7 @@
         <v>25.525979390331436</v>
       </c>
     </row>
-    <row r="314" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>0.68907600000000002</v>
       </c>
@@ -54686,7 +54686,7 @@
         <v>25.49992982509287</v>
       </c>
     </row>
-    <row r="315" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>0.69036799999999998</v>
       </c>
@@ -54859,7 +54859,7 @@
         <v>25.44802580431255</v>
       </c>
     </row>
-    <row r="316" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>0.69166099999999997</v>
       </c>
@@ -55032,7 +55032,7 @@
         <v>25.39623389864569</v>
       </c>
     </row>
-    <row r="317" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>0.69360100000000002</v>
       </c>
@@ -55205,7 +55205,7 @@
         <v>25.318810239396157</v>
       </c>
     </row>
-    <row r="318" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>0.69618599999999997</v>
       </c>
@@ -55378,7 +55378,7 @@
         <v>25.216171617817437</v>
       </c>
     </row>
-    <row r="319" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>0.69747899999999996</v>
       </c>
@@ -55551,7 +55551,7 @@
         <v>25.165056554330938</v>
       </c>
     </row>
-    <row r="320" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>0.698125</v>
       </c>
@@ -55724,7 +55724,7 @@
         <v>25.139574470124934</v>
       </c>
     </row>
-    <row r="321" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>0.70394299999999999</v>
       </c>
@@ -55897,7 +55897,7 @@
         <v>24.911734432573546</v>
       </c>
     </row>
-    <row r="322" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>0.70588200000000001</v>
       </c>
@@ -56070,7 +56070,7 @@
         <v>24.83645677732499</v>
       </c>
     </row>
-    <row r="323" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>0.70652899999999996</v>
       </c>
@@ -56243,7 +56243,7 @@
         <v>24.811410594718318</v>
       </c>
     </row>
-    <row r="324" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>0.707175</v>
       </c>
@@ -56416,7 +56416,7 @@
         <v>24.786439056528998</v>
       </c>
     </row>
-    <row r="325" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>0.71234600000000003</v>
       </c>
@@ -56589,7 +56589,7 @@
         <v>24.587835059295315</v>
       </c>
     </row>
-    <row r="326" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>0.71557899999999997</v>
       </c>
@@ -56762,7 +56762,7 @@
         <v>24.464812231545856</v>
       </c>
     </row>
-    <row r="327" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>0.72075</v>
       </c>
@@ -56935,7 +56935,7 @@
         <v>24.269851461772369</v>
       </c>
     </row>
-    <row r="328" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>0.72139600000000004</v>
       </c>
@@ -57108,7 +57108,7 @@
         <v>24.245650152892409</v>
       </c>
     </row>
-    <row r="329" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>0.72204299999999999</v>
       </c>
@@ -57281,7 +57281,7 @@
         <v>24.221445553420708</v>
       </c>
     </row>
-    <row r="330" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>0.73044600000000004</v>
       </c>
@@ -57454,7 +57454,7 @@
         <v>23.910157196518384</v>
       </c>
     </row>
-    <row r="331" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>0.73367800000000005</v>
       </c>
@@ -57627,7 +57627,7 @@
         <v>23.791926054987236</v>
       </c>
     </row>
-    <row r="332" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>0.73561699999999997</v>
       </c>
@@ -57800,7 +57800,7 @@
         <v>23.721387976421745</v>
       </c>
     </row>
-    <row r="333" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>0.73626400000000003</v>
       </c>
@@ -57973,7 +57973,7 @@
         <v>23.697916228858979</v>
       </c>
     </row>
-    <row r="334" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>0.74014199999999997</v>
       </c>
@@ -58146,7 +58146,7 @@
         <v>23.557909683913167</v>
       </c>
     </row>
-    <row r="335" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>0.74078900000000003</v>
       </c>
@@ -58319,7 +58319,7 @@
         <v>23.534663788710347</v>
       </c>
     </row>
-    <row r="336" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>0.74919199999999997</v>
       </c>
@@ -58492,7 +58492,7 @@
         <v>23.235637307424533</v>
       </c>
     </row>
-    <row r="337" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>0.75048499999999996</v>
       </c>
@@ -58665,7 +58665,7 @@
         <v>23.190094807088144</v>
       </c>
     </row>
-    <row r="338" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>0.75242399999999998</v>
       </c>
@@ -58838,7 +58838,7 @@
         <v>23.122030476802223</v>
       </c>
     </row>
-    <row r="339" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>0.75888800000000001</v>
       </c>
@@ -59011,7 +59011,7 @@
         <v>22.897113754169922</v>
       </c>
     </row>
-    <row r="340" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>0.760181</v>
       </c>
@@ -59184,7 +59184,7 @@
         <v>22.852486599364795</v>
       </c>
     </row>
-    <row r="341" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>0.76212000000000002</v>
       </c>
@@ -59357,7 +59357,7 @@
         <v>22.785787622436288</v>
       </c>
     </row>
-    <row r="342" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>0.76341300000000001</v>
       </c>
@@ -59530,7 +59530,7 @@
         <v>22.741459136179969</v>
       </c>
     </row>
-    <row r="343" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>0.76729199999999997</v>
       </c>
@@ -59703,7 +59703,7 @@
         <v>22.60918329214374</v>
       </c>
     </row>
-    <row r="344" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>0.76793800000000001</v>
       </c>
@@ -59876,7 +59876,7 @@
         <v>22.587257109369062</v>
       </c>
     </row>
-    <row r="345" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>0.77181599999999995</v>
       </c>
@@ -60049,7 +60049,7 @@
         <v>22.456243157598884</v>
       </c>
     </row>
-    <row r="346" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>0.773756</v>
       </c>
@@ -60222,7 +60222,7 @@
         <v>22.391092760925844</v>
       </c>
     </row>
-    <row r="347" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>0.77504799999999996</v>
       </c>
@@ -60395,7 +60395,7 @@
         <v>22.347847254728258</v>
       </c>
     </row>
-    <row r="348" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>0.77569500000000002</v>
       </c>
@@ -60568,7 +60568,7 @@
         <v>22.326233906784438</v>
       </c>
     </row>
-    <row r="349" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>0.78345200000000004</v>
       </c>
@@ -60741,7 +60741,7 @@
         <v>22.06931256908949</v>
       </c>
     </row>
-    <row r="350" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>0.78409799999999996</v>
       </c>
@@ -60914,7 +60914,7 @@
         <v>22.048098097968577</v>
       </c>
     </row>
-    <row r="351" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>0.78539099999999995</v>
       </c>
@@ -61087,7 +61087,7 @@
         <v>22.005719434516394</v>
       </c>
     </row>
-    <row r="352" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>0.78927000000000003</v>
       </c>
@@ -61260,7 +61260,7 @@
         <v>21.879244467817834</v>
       </c>
     </row>
-    <row r="353" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>0.79444099999999995</v>
       </c>
@@ -61433,7 +61433,7 @@
         <v>21.712168920095486</v>
       </c>
     </row>
-    <row r="354" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>0.79573400000000005</v>
       </c>
@@ -61606,7 +61606,7 @@
         <v>21.670661382117046</v>
       </c>
     </row>
-    <row r="355" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>0.79702700000000004</v>
       </c>
@@ -61779,7 +61779,7 @@
         <v>21.629260754463296</v>
       </c>
     </row>
-    <row r="356" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>0.80995499999999998</v>
       </c>
@@ -61952,7 +61952,7 @@
         <v>21.221102532335834</v>
       </c>
     </row>
-    <row r="357" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>0.81383300000000003</v>
       </c>
@@ -62125,7 +62125,7 @@
         <v>21.100679896639157</v>
       </c>
     </row>
-    <row r="358" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>0.81900499999999998</v>
       </c>
@@ -62298,7 +62298,7 @@
         <v>20.941487603815233</v>
       </c>
     </row>
-    <row r="359" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>0.82482200000000006</v>
       </c>
@@ -62471,7 +62471,7 @@
         <v>20.764342487368289</v>
       </c>
     </row>
-    <row r="360" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>0.82870100000000002</v>
       </c>
@@ -62644,7 +62644,7 @@
         <v>20.647316409307862</v>
       </c>
     </row>
-    <row r="361" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>0.83451799999999998</v>
       </c>
@@ -62817,7 +62817,7 @@
         <v>20.47344804163793</v>
       </c>
     </row>
-    <row r="362" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>0.83581099999999997</v>
       </c>
@@ -62990,7 +62990,7 @@
         <v>20.435062689916769</v>
       </c>
     </row>
-    <row r="363" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>0.83969000000000005</v>
       </c>
@@ -63163,7 +63163,7 @@
         <v>20.320472169408852</v>
       </c>
     </row>
-    <row r="364" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>0.84356799999999998</v>
       </c>
@@ -63336,7 +63336,7 @@
         <v>20.206751526850049</v>
       </c>
     </row>
-    <row r="365" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>0.84550700000000001</v>
       </c>
@@ -63509,7 +63509,7 @@
         <v>20.150203257577544</v>
       </c>
     </row>
-    <row r="366" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>0.8468</v>
       </c>
@@ -63682,7 +63682,7 @@
         <v>20.112609491756054</v>
       </c>
     </row>
-    <row r="367" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>0.84744699999999995</v>
       </c>
@@ -63855,7 +63855,7 @@
         <v>20.093832420260078</v>
       </c>
     </row>
-    <row r="368" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>0.84873900000000002</v>
       </c>
@@ -64028,7 +64028,7 @@
         <v>20.056404657725167</v>
       </c>
     </row>
-    <row r="369" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>0.85326400000000002</v>
       </c>
@@ -64201,7 +64201,7 @@
         <v>19.926034026827281</v>
       </c>
     </row>
-    <row r="370" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>0.860375</v>
       </c>
@@ -64374,7 +64374,7 @@
         <v>19.723372053067777</v>
       </c>
     </row>
-    <row r="371" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>0.87200999999999995</v>
       </c>
@@ -64547,7 +64547,7 @@
         <v>19.397482941245848</v>
       </c>
     </row>
-    <row r="372" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>0.87653499999999995</v>
       </c>
@@ -64720,7 +64720,7 @@
         <v>19.27261070316036</v>
       </c>
     </row>
-    <row r="373" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>0.87718200000000002</v>
       </c>
@@ -64893,7 +64893,7 @@
         <v>19.254840245971167</v>
       </c>
     </row>
-    <row r="374" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>0.88105999999999995</v>
       </c>
@@ -65066,7 +65066,7 @@
         <v>19.148765110144552</v>
       </c>
     </row>
-    <row r="375" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>0.88558499999999996</v>
       </c>
@@ -65239,7 +65239,7 @@
         <v>19.025932904622309</v>
       </c>
     </row>
-    <row r="376" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>0.88881699999999997</v>
       </c>
@@ -65412,7 +65412,7 @@
         <v>18.938812672178841</v>
       </c>
     </row>
-    <row r="377" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>0.89592799999999995</v>
       </c>
@@ -65585,7 +65585,7 @@
         <v>18.74890568532139</v>
       </c>
     </row>
-    <row r="378" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>0.89851300000000001</v>
       </c>
@@ -65758,7 +65758,7 @@
         <v>18.680467559756167</v>
       </c>
     </row>
-    <row r="379" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>0.90174500000000002</v>
       </c>
@@ -65931,7 +65931,7 @@
         <v>18.595342521585003</v>
       </c>
     </row>
-    <row r="380" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>0.90303800000000001</v>
       </c>
@@ -66104,7 +66104,7 @@
         <v>18.561424024988277</v>
       </c>
     </row>
-    <row r="381" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>0.904331</v>
       </c>
@@ -66277,7 +66277,7 @@
         <v>18.527583276557046</v>
       </c>
     </row>
-    <row r="382" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>0.90691699999999997</v>
       </c>
@@ -66450,7 +66450,7 @@
         <v>18.460133902297869</v>
       </c>
     </row>
-    <row r="383" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>0.908856</v>
       </c>
@@ -66623,7 +66623,7 @@
         <v>18.409761848960557</v>
       </c>
     </row>
-    <row r="384" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>0.90950200000000003</v>
       </c>
@@ -66796,7 +66796,7 @@
         <v>18.393018073210662</v>
       </c>
     </row>
-    <row r="385" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>0.91079500000000002</v>
       </c>
@@ -66969,7 +66969,7 @@
         <v>18.359561821964419</v>
       </c>
     </row>
-    <row r="386" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>0.91144099999999995</v>
       </c>
@@ -67142,7 +67142,7 @@
         <v>18.342875152976262</v>
       </c>
     </row>
-    <row r="387" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>0.913381</v>
       </c>
@@ -67315,7 +67315,7 @@
         <v>18.292877299101399</v>
       </c>
     </row>
-    <row r="388" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>0.91661300000000001</v>
       </c>
@@ -67488,7 +67488,7 @@
         <v>18.209959099263536</v>
       </c>
     </row>
-    <row r="389" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>0.91919799999999996</v>
       </c>
@@ -67661,7 +67661,7 @@
         <v>18.14397682333275</v>
       </c>
     </row>
-    <row r="390" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>0.93147999999999997</v>
       </c>
@@ -67834,7 +67834,7 @@
         <v>17.834501769242365</v>
       </c>
     </row>
-    <row r="391" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>0.93471199999999999</v>
       </c>
@@ -68007,7 +68007,7 @@
         <v>17.754150443319105</v>
       </c>
     </row>
-    <row r="392" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>0.94052999999999998</v>
       </c>
@@ -68180,7 +68180,7 @@
         <v>17.61062748137028</v>
       </c>
     </row>
-    <row r="393" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>0.95539799999999997</v>
       </c>
@@ -68353,7 +68353,7 @@
         <v>17.25025190517168</v>
       </c>
     </row>
-    <row r="394" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>0.956044</v>
       </c>
@@ -68526,7 +68526,7 @@
         <v>17.234798543242611</v>
       </c>
     </row>
-    <row r="395" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>0.95798300000000003</v>
       </c>
@@ -68699,7 +68699,7 @@
         <v>17.188515285367743</v>
       </c>
     </row>
-    <row r="396" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>0.95927600000000002</v>
       </c>
@@ -68872,7 +68872,7 @@
         <v>17.157735535213767</v>
       </c>
     </row>
-    <row r="397" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>0.95992200000000005</v>
       </c>
@@ -69045,7 +69045,7 @@
         <v>17.142382568274286</v>
       </c>
     </row>
-    <row r="398" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>0.96186199999999999</v>
       </c>
@@ -69218,7 +69218,7 @@
         <v>17.096375944889324</v>
       </c>
     </row>
-    <row r="399" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>0.96444700000000005</v>
       </c>
@@ -69391,7 +69391,7 @@
         <v>17.035304962235159</v>
       </c>
     </row>
-    <row r="400" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>0.966387</v>
       </c>
@@ -69564,7 +69564,7 @@
         <v>16.989645063757493</v>
       </c>
     </row>
-    <row r="401" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>0.97091099999999997</v>
       </c>
@@ -69737,7 +69737,7 @@
         <v>16.883739383901379</v>
       </c>
     </row>
-    <row r="402" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>0.97479000000000005</v>
       </c>
@@ -69910,7 +69910,7 @@
         <v>16.793564071844216</v>
       </c>
     </row>
-    <row r="403" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>0.97802199999999995</v>
       </c>
@@ -70083,7 +70083,7 @@
         <v>16.718870088221152</v>
       </c>
     </row>
-    <row r="404" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>0.98125399999999996</v>
       </c>
@@ -70256,7 +70256,7 @@
         <v>16.644572934315768</v>
       </c>
     </row>
-    <row r="405" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>0.9819</v>
       </c>
@@ -70429,7 +70429,7 @@
         <v>16.629769991808729</v>
       </c>
     </row>
-    <row r="406" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>0.98254699999999995</v>
       </c>
@@ -70602,7 +70602,7 @@
         <v>16.614959865710851</v>
       </c>
     </row>
-    <row r="407" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>0.98448599999999997</v>
       </c>
@@ -70775,7 +70775,7 @@
         <v>16.570669295721416</v>
       </c>
     </row>
-    <row r="408" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>0.98577899999999996</v>
       </c>
@@ -70948,7 +70948,7 @@
         <v>16.541212737854046</v>
       </c>
     </row>
-    <row r="409" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>0.986425</v>
       </c>
@@ -71121,7 +71121,7 @@
         <v>16.52651918196289</v>
       </c>
     </row>
-    <row r="410" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>0.98707199999999995</v>
       </c>
@@ -71294,7 +71294,7 @@
         <v>16.511818428951024</v>
       </c>
     </row>
-    <row r="411" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>0.98771799999999998</v>
       </c>
@@ -71467,7 +71467,7 @@
         <v>16.497155895799644</v>
       </c>
     </row>
-    <row r="412" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>0.98836500000000005</v>
       </c>
@@ -71640,7 +71640,7 @@
         <v>16.482486161833791</v>
       </c>
     </row>
-    <row r="413" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>0.98901099999999997</v>
       </c>
@@ -71813,7 +71813,7 @@
         <v>16.467854548266416</v>
       </c>
     </row>
-    <row r="414" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>0.99288900000000002</v>
       </c>
@@ -71986,7 +71986,7 @@
         <v>16.38034257956167</v>
       </c>
     </row>
-    <row r="415" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>0.99418200000000001</v>
       </c>
@@ -72159,7 +72159,7 @@
         <v>16.35128689099956</v>
       </c>
     </row>
-    <row r="416" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>0.99482899999999996</v>
       </c>
@@ -72332,7 +72332,7 @@
         <v>16.336770691826402</v>
       </c>
     </row>
-    <row r="417" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>0.995475</v>
       </c>
@@ -72505,7 +72505,7 @@
         <v>16.322292121676618</v>
       </c>
     </row>
-    <row r="418" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>0.99612199999999995</v>
       </c>
